--- a/06. 구현 - 조별 프로젝트 공정도.xlsx
+++ b/06. 구현 - 조별 프로젝트 공정도.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -121,9 +121,6 @@
     <t>정수환</t>
   </si>
   <si>
-    <t>김보성</t>
-  </si>
-  <si>
     <t>2020년 03월</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 김보성, 김영수</t>
-  </si>
-  <si>
-    <t>캘린더 제작 및 git 구축</t>
   </si>
   <si>
     <t>(실시후 작성!)</t>
@@ -171,7 +165,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>페이지 레이아웃 조사 및 jsp 제작</t>
+    <t>CSS 및 jsp 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1009,8 +1003,8 @@
   </sheetPr>
   <dimension ref="A1:AS62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1034,7 +1028,7 @@
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1155,7 +1149,7 @@
     </row>
     <row r="4" spans="1:45" ht="21.15" customHeight="1">
       <c r="A4" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -1172,7 +1166,7 @@
       <c r="J4" s="42"/>
       <c r="K4" s="43"/>
       <c r="L4" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M4" s="32"/>
       <c r="N4" s="32"/>
@@ -1238,7 +1232,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
@@ -1258,7 +1252,7 @@
       <c r="Z6" s="45"/>
       <c r="AA6" s="45"/>
       <c r="AB6" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC6" s="24"/>
       <c r="AD6" s="24"/>
@@ -1404,12 +1398,12 @@
         <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="8">
         <v>43905</v>
@@ -1460,7 +1454,7 @@
       <c r="AP8" s="15"/>
       <c r="AQ8" s="15"/>
       <c r="AR8" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
@@ -1483,7 +1477,7 @@
         <v>15</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="13"/>
@@ -1527,7 +1521,7 @@
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -1627,7 +1621,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1731,7 +1725,7 @@
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1831,13 +1825,11 @@
       <c r="A16" s="16">
         <v>5</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>27</v>
-      </c>
+      <c r="B16" s="46"/>
       <c r="C16" s="47"/>
       <c r="D16" s="16"/>
       <c r="E16" s="54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F16" s="8">
         <v>43903</v>
@@ -1897,7 +1889,7 @@
         <v>43905</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="18"/>
@@ -2694,9 +2686,7 @@
       <c r="B32" s="46"/>
       <c r="C32" s="47"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="E32" s="16"/>
       <c r="F32" s="8">
         <v>43903</v>
       </c>
@@ -2754,7 +2744,7 @@
         <v>43905</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="18"/>

--- a/06. 구현 - 조별 프로젝트 공정도.xlsx
+++ b/06. 구현 - 조별 프로젝트 공정도.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="53">
   <si>
     <t>No</t>
   </si>
@@ -139,9 +139,6 @@
     <t xml:space="preserve"> 김보성, 김영수</t>
   </si>
   <si>
-    <t>(실시후 작성!)</t>
-  </si>
-  <si>
     <t>공통</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,6 +163,58 @@
   </si>
   <si>
     <t>CSS 및 jsp 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 및 로그인/아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 수정, 회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 및 비밀번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 게시물 게재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 멤버 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 메모, 그룹 사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표 게시물 선택(공지사항)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대코드 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 초대 및 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 게시물 수정, 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해시태그, 쪽지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,9 +305,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="&quot;ＭＳ Ｐゴシック&quot;"/>
-      <family val="3"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="바탕체"/>
+      <family val="1"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -300,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -459,12 +509,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -507,17 +566,98 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -525,106 +665,19 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1001,10 +1054,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS62"/>
+  <dimension ref="A1:AS58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1027,170 +1080,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
     </row>
     <row r="2" spans="1:45" ht="28.35" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="34" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36" t="s">
+      <c r="H3" s="36"/>
+      <c r="I3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="30" t="s">
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
     </row>
     <row r="4" spans="1:45" ht="21.15" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41" t="s">
+      <c r="H4" s="41"/>
+      <c r="I4" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="31" t="s">
+      <c r="J4" s="43"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="34"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1206,17 +1259,17 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="48" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1225,67 +1278,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="23" t="s">
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="24"/>
-      <c r="AQ6" s="24"/>
-      <c r="AR6" s="24"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
       <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1394,16 +1447,16 @@
       <c r="AS7" s="2"/>
     </row>
     <row r="8" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A8" s="16">
+      <c r="A8" s="20">
         <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="F8" s="8">
         <v>43905</v>
@@ -1411,10 +1464,10 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="22">
         <v>1</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="12"/>
@@ -1453,31 +1506,31 @@
       <c r="AO8" s="14"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="15"/>
-      <c r="AR8" s="25" t="s">
+      <c r="AR8" s="26" t="s">
         <v>29</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="8">
         <v>43905</v>
       </c>
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="13"/>
@@ -1510,23 +1563,27 @@
       <c r="AO9" s="14"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="15"/>
-      <c r="AR9" s="26"/>
+      <c r="AR9" s="27"/>
       <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A10" s="16">
+      <c r="A10" s="20">
         <v>2</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="8">
+        <v>43906</v>
+      </c>
+      <c r="G10" s="8">
+        <v>43907</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="12"/>
@@ -1563,19 +1620,21 @@
       <c r="AO10" s="14"/>
       <c r="AP10" s="15"/>
       <c r="AQ10" s="15"/>
-      <c r="AR10" s="26"/>
+      <c r="AR10" s="27"/>
       <c r="AS10" s="2"/>
     </row>
     <row r="11" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="8">
+        <v>43906</v>
+      </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="11"/>
@@ -1610,23 +1669,27 @@
       <c r="AO11" s="14"/>
       <c r="AP11" s="15"/>
       <c r="AQ11" s="15"/>
-      <c r="AR11" s="26"/>
+      <c r="AR11" s="27"/>
       <c r="AS11" s="2"/>
     </row>
     <row r="12" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A12" s="16">
+      <c r="A12" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="8">
+        <v>43906</v>
+      </c>
+      <c r="G12" s="8">
+        <v>43908</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="12"/>
@@ -1665,19 +1728,21 @@
       <c r="AO12" s="14"/>
       <c r="AP12" s="15"/>
       <c r="AQ12" s="15"/>
-      <c r="AR12" s="26"/>
+      <c r="AR12" s="27"/>
       <c r="AS12" s="2"/>
     </row>
     <row r="13" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="8">
+        <v>43906</v>
+      </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="11" t="s">
@@ -1714,23 +1779,27 @@
       <c r="AO13" s="14"/>
       <c r="AP13" s="15"/>
       <c r="AQ13" s="15"/>
-      <c r="AR13" s="26"/>
+      <c r="AR13" s="27"/>
       <c r="AS13" s="2"/>
     </row>
     <row r="14" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A14" s="16">
+      <c r="A14" s="20">
         <v>4</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="8">
+        <v>43908</v>
+      </c>
+      <c r="G14" s="8">
+        <v>43917</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="12"/>
@@ -1769,19 +1838,19 @@
       <c r="AO14" s="14"/>
       <c r="AP14" s="15"/>
       <c r="AQ14" s="15"/>
-      <c r="AR14" s="26"/>
+      <c r="AR14" s="27"/>
       <c r="AS14" s="2"/>
     </row>
     <row r="15" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11" t="s">
@@ -1818,27 +1887,27 @@
       <c r="AO15" s="14"/>
       <c r="AP15" s="15"/>
       <c r="AQ15" s="15"/>
-      <c r="AR15" s="26"/>
+      <c r="AR15" s="27"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
-      <c r="A16" s="16">
+      <c r="A16" s="20">
         <v>5</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="54" t="s">
-        <v>37</v>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="49" t="s">
+        <v>36</v>
       </c>
       <c r="F16" s="8">
-        <v>43903</v>
+        <v>43929</v>
       </c>
       <c r="G16" s="8">
-        <v>43905</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17" t="s">
+        <v>43937</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="12"/>
@@ -1877,22 +1946,18 @@
       <c r="AO16" s="14"/>
       <c r="AP16" s="15"/>
       <c r="AQ16" s="15"/>
-      <c r="AR16" s="26"/>
+      <c r="AR16" s="27"/>
     </row>
     <row r="17" spans="1:44">
-      <c r="A17" s="16"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="8">
-        <v>43905</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="11" t="s">
@@ -1929,20 +1994,24 @@
       <c r="AO17" s="14"/>
       <c r="AP17" s="15"/>
       <c r="AQ17" s="15"/>
-      <c r="AR17" s="26"/>
+      <c r="AR17" s="27"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1">
-      <c r="A18" s="16">
+      <c r="A18" s="20">
         <v>6</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="8">
+        <v>43918</v>
+      </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17" t="s">
+      <c r="H18" s="22"/>
+      <c r="I18" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J18" s="12"/>
@@ -1981,18 +2050,18 @@
       <c r="AO18" s="14"/>
       <c r="AP18" s="15"/>
       <c r="AQ18" s="15"/>
-      <c r="AR18" s="26"/>
+      <c r="AR18" s="27"/>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" s="16"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="19"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="51"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11" t="s">
@@ -2029,20 +2098,22 @@
       <c r="AO19" s="14"/>
       <c r="AP19" s="15"/>
       <c r="AQ19" s="15"/>
-      <c r="AR19" s="26"/>
+      <c r="AR19" s="27"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
-      <c r="A20" s="16">
+      <c r="A20" s="20">
         <v>7</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17" t="s">
+      <c r="H20" s="22"/>
+      <c r="I20" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="12"/>
@@ -2081,18 +2152,18 @@
       <c r="AO20" s="14"/>
       <c r="AP20" s="15"/>
       <c r="AQ20" s="15"/>
-      <c r="AR20" s="26"/>
+      <c r="AR20" s="27"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="16"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="19"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="11" t="s">
@@ -2129,20 +2200,22 @@
       <c r="AO21" s="14"/>
       <c r="AP21" s="15"/>
       <c r="AQ21" s="15"/>
-      <c r="AR21" s="26"/>
+      <c r="AR21" s="27"/>
     </row>
     <row r="22" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A22" s="16">
+      <c r="A22" s="20">
         <v>8</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17" t="s">
+      <c r="H22" s="22"/>
+      <c r="I22" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="12"/>
@@ -2181,18 +2254,18 @@
       <c r="AO22" s="14"/>
       <c r="AP22" s="15"/>
       <c r="AQ22" s="15"/>
-      <c r="AR22" s="26"/>
+      <c r="AR22" s="27"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="16"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="51"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11" t="s">
@@ -2229,20 +2302,24 @@
       <c r="AO23" s="14"/>
       <c r="AP23" s="15"/>
       <c r="AQ23" s="15"/>
-      <c r="AR23" s="26"/>
+      <c r="AR23" s="27"/>
     </row>
     <row r="24" spans="1:44" ht="12" customHeight="1">
-      <c r="A24" s="16">
+      <c r="A24" s="20">
         <v>9</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17" t="s">
+      <c r="G24" s="8">
+        <v>43928</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="12"/>
@@ -2281,18 +2358,18 @@
       <c r="AO24" s="14"/>
       <c r="AP24" s="15"/>
       <c r="AQ24" s="15"/>
-      <c r="AR24" s="26"/>
+      <c r="AR24" s="27"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="16"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11" t="s">
@@ -2329,20 +2406,24 @@
       <c r="AO25" s="14"/>
       <c r="AP25" s="15"/>
       <c r="AQ25" s="15"/>
-      <c r="AR25" s="26"/>
+      <c r="AR25" s="27"/>
     </row>
     <row r="26" spans="1:44">
-      <c r="A26" s="16">
+      <c r="A26" s="20">
         <v>10</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="8"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="8">
+        <v>43918</v>
+      </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17" t="s">
+      <c r="H26" s="22"/>
+      <c r="I26" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="12"/>
@@ -2381,18 +2462,18 @@
       <c r="AO26" s="13"/>
       <c r="AP26" s="13"/>
       <c r="AQ26" s="13"/>
-      <c r="AR26" s="26"/>
+      <c r="AR26" s="27"/>
     </row>
     <row r="27" spans="1:44">
-      <c r="A27" s="16"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="11" t="s">
@@ -2429,20 +2510,22 @@
       <c r="AO27" s="13"/>
       <c r="AP27" s="13"/>
       <c r="AQ27" s="13"/>
-      <c r="AR27" s="26"/>
+      <c r="AR27" s="27"/>
     </row>
     <row r="28" spans="1:44" ht="12" customHeight="1">
-      <c r="A28" s="16">
+      <c r="A28" s="20">
         <v>11</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="17" t="s">
+      <c r="H28" s="21"/>
+      <c r="I28" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="12"/>
@@ -2483,18 +2566,18 @@
       <c r="AO28" s="13"/>
       <c r="AP28" s="13"/>
       <c r="AQ28" s="13"/>
-      <c r="AR28" s="26"/>
+      <c r="AR28" s="27"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" s="16"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="18"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="12" t="s">
         <v>15</v>
       </c>
@@ -2557,20 +2640,22 @@
       <c r="AO29" s="13"/>
       <c r="AP29" s="13"/>
       <c r="AQ29" s="13"/>
-      <c r="AR29" s="26"/>
+      <c r="AR29" s="27"/>
     </row>
     <row r="30" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A30" s="16">
+      <c r="A30" s="20">
         <v>12</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="17" t="s">
+      <c r="H30" s="21"/>
+      <c r="I30" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="12"/>
@@ -2617,18 +2702,18 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="26"/>
+      <c r="AR30" s="27"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" s="16"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="18"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
@@ -2677,24 +2762,24 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="27"/>
+      <c r="AR31" s="28"/>
     </row>
     <row r="32" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A32" s="16">
+      <c r="A32" s="20">
         <v>13</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="8">
-        <v>43903</v>
-      </c>
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="8"/>
       <c r="G32" s="8">
-        <v>43905</v>
-      </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17" t="s">
+        <v>43928</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J32" s="12"/>
@@ -2735,19 +2820,15 @@
       <c r="AQ32" s="15"/>
     </row>
     <row r="33" spans="1:43" ht="12" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="8">
-        <v>43905</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="11" t="s">
@@ -2786,17 +2867,21 @@
       <c r="AQ33" s="15"/>
     </row>
     <row r="34" spans="1:43" ht="12" customHeight="1">
-      <c r="A34" s="16">
+      <c r="A34" s="20">
         <v>14</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="8"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="8">
+        <v>43918</v>
+      </c>
       <c r="G34" s="8"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17" t="s">
+      <c r="H34" s="22"/>
+      <c r="I34" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J34" s="12"/>
@@ -2837,15 +2922,15 @@
       <c r="AQ34" s="15"/>
     </row>
     <row r="35" spans="1:43">
-      <c r="A35" s="16"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="19"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11" t="s">
@@ -2884,17 +2969,19 @@
       <c r="AQ35" s="15"/>
     </row>
     <row r="36" spans="1:43">
-      <c r="A36" s="16">
+      <c r="A36" s="20">
         <v>15</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17" t="s">
+      <c r="H36" s="22"/>
+      <c r="I36" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J36" s="12"/>
@@ -2935,15 +3022,15 @@
       <c r="AQ36" s="15"/>
     </row>
     <row r="37" spans="1:43">
-      <c r="A37" s="16"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="19"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="51"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="18"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="11" t="s">
@@ -2982,17 +3069,19 @@
       <c r="AQ37" s="15"/>
     </row>
     <row r="38" spans="1:43">
-      <c r="A38" s="16">
+      <c r="A38" s="20">
         <v>16</v>
       </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17" t="s">
+      <c r="H38" s="22"/>
+      <c r="I38" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J38" s="12"/>
@@ -3033,15 +3122,15 @@
       <c r="AQ38" s="15"/>
     </row>
     <row r="39" spans="1:43">
-      <c r="A39" s="16"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="52"/>
       <c r="C39" s="53"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="18"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="11" t="s">
@@ -3080,17 +3169,19 @@
       <c r="AQ39" s="15"/>
     </row>
     <row r="40" spans="1:43" ht="13.2" customHeight="1">
-      <c r="A40" s="16">
+      <c r="A40" s="20">
         <v>17</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17" t="s">
+      <c r="H40" s="22"/>
+      <c r="I40" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J40" s="12"/>
@@ -3131,15 +3222,15 @@
       <c r="AQ40" s="15"/>
     </row>
     <row r="41" spans="1:43">
-      <c r="A41" s="16"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="19"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="51"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="18"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11" t="s">
@@ -3178,17 +3269,21 @@
       <c r="AQ41" s="15"/>
     </row>
     <row r="42" spans="1:43" ht="13.2" customHeight="1">
-      <c r="A42" s="16">
+      <c r="A42" s="20">
         <v>18</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17" t="s">
+      <c r="G42" s="8">
+        <v>43928</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J42" s="12"/>
@@ -3229,15 +3324,15 @@
       <c r="AQ42" s="13"/>
     </row>
     <row r="43" spans="1:43">
-      <c r="A43" s="16"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="19"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="51"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="18"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11" t="s">
@@ -3275,373 +3370,122 @@
       <c r="AP43" s="13"/>
       <c r="AQ43" s="13"/>
     </row>
-    <row r="44" spans="1:43" ht="13.2" customHeight="1">
-      <c r="A44" s="16">
-        <v>19</v>
-      </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N44" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
-      <c r="AC44" s="13"/>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="12"/>
-      <c r="AF44" s="12"/>
-      <c r="AG44" s="13"/>
-      <c r="AH44" s="13"/>
-      <c r="AI44" s="13"/>
-      <c r="AJ44" s="13"/>
-      <c r="AK44" s="13"/>
-      <c r="AL44" s="12"/>
-      <c r="AM44" s="12"/>
-      <c r="AN44" s="13"/>
-      <c r="AO44" s="13"/>
-      <c r="AP44" s="13"/>
-      <c r="AQ44" s="13"/>
-    </row>
-    <row r="45" spans="1:43">
-      <c r="A45" s="16"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="O45" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="P45" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB45" s="13"/>
-      <c r="AC45" s="13"/>
-      <c r="AD45" s="13"/>
-      <c r="AE45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG45" s="13"/>
-      <c r="AH45" s="13"/>
-      <c r="AI45" s="13"/>
-      <c r="AJ45" s="13"/>
-      <c r="AK45" s="13"/>
-      <c r="AL45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN45" s="13"/>
-      <c r="AO45" s="13"/>
-      <c r="AP45" s="13"/>
-      <c r="AQ45" s="13"/>
-    </row>
-    <row r="46" spans="1:43">
-      <c r="A46" s="16">
-        <v>20</v>
-      </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="U46" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="V46" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="W46" s="13"/>
-      <c r="X46" s="12"/>
-      <c r="Y46" s="12"/>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
-      <c r="AC46" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD46" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE46" s="12"/>
-      <c r="AF46" s="12"/>
-      <c r="AG46" s="13"/>
-      <c r="AH46" s="13"/>
-      <c r="AI46" s="13"/>
-      <c r="AJ46" s="13"/>
-      <c r="AK46" s="13"/>
-      <c r="AL46" s="12"/>
-      <c r="AM46" s="12"/>
-      <c r="AN46" s="13"/>
-      <c r="AO46" s="13"/>
-      <c r="AP46" s="13"/>
-      <c r="AQ46" s="13"/>
-    </row>
-    <row r="47" spans="1:43">
-      <c r="A47" s="16"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="T47" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="U47" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="V47" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="W47" s="13"/>
-      <c r="X47" s="12"/>
-      <c r="Y47" s="12"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC47" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD47" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE47" s="12"/>
-      <c r="AF47" s="12"/>
-      <c r="AG47" s="13"/>
-      <c r="AH47" s="13"/>
-      <c r="AI47" s="13"/>
-      <c r="AJ47" s="13"/>
-      <c r="AK47" s="13"/>
-      <c r="AL47" s="12"/>
-      <c r="AM47" s="12"/>
-      <c r="AN47" s="13"/>
-      <c r="AO47" s="13"/>
-      <c r="AP47" s="13"/>
-      <c r="AQ47" s="13"/>
-    </row>
-    <row r="51" spans="1:26" ht="13.2" customHeight="1"/>
-    <row r="52" spans="1:26" ht="13.2" customHeight="1"/>
-    <row r="61" spans="1:26">
-      <c r="A61" s="20" t="s">
+    <row r="47" spans="1:43" ht="13.2" customHeight="1"/>
+    <row r="48" spans="1:43" ht="13.2" customHeight="1"/>
+    <row r="57" spans="1:26">
+      <c r="A57" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="20"/>
-      <c r="V61" s="20"/>
-      <c r="W61" s="20"/>
-      <c r="X61" s="20"/>
-      <c r="Y61" s="20"/>
-      <c r="Z61" s="20"/>
-    </row>
-    <row r="62" spans="1:26">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="20"/>
-      <c r="W62" s="20"/>
-      <c r="X62" s="20"/>
-      <c r="Y62" s="20"/>
-      <c r="Z62" s="20"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="47"/>
+      <c r="T57" s="47"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="47"/>
+      <c r="W57" s="47"/>
+      <c r="X57" s="47"/>
+      <c r="Y57" s="47"/>
+      <c r="Z57" s="47"/>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="47"/>
+      <c r="R58" s="47"/>
+      <c r="S58" s="47"/>
+      <c r="T58" s="47"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="47"/>
+      <c r="W58" s="47"/>
+      <c r="X58" s="47"/>
+      <c r="Y58" s="47"/>
+      <c r="Z58" s="47"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="135">
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="113">
+    <mergeCell ref="A57:Z58"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B8:C17"/>
+    <mergeCell ref="B18:C25"/>
+    <mergeCell ref="B26:C33"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
     <mergeCell ref="AB6:AR6"/>
     <mergeCell ref="AR8:AR31"/>
     <mergeCell ref="A1:AI2"/>
@@ -3666,57 +3510,42 @@
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A61:Z62"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C15"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="B34:C43"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/06. 구현 - 조별 프로젝트 공정도.xlsx
+++ b/06. 구현 - 조별 프로젝트 공정도.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SWDO_PJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWDO_PJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,9 +221,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="dd"/>
+    <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -545,7 +545,7 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,30 +566,45 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -659,28 +674,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -765,7 +765,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1056,194 +1056,194 @@
   </sheetPr>
   <dimension ref="A1:AS58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="7.09765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="5" customWidth="1"/>
     <col min="5" max="5" width="28" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.5546875" style="7" customWidth="1"/>
-    <col min="12" max="35" width="5.5546875" style="1" customWidth="1"/>
-    <col min="36" max="40" width="3.6640625" style="1" customWidth="1"/>
-    <col min="41" max="43" width="9.109375" style="1" customWidth="1"/>
-    <col min="44" max="44" width="12.88671875" style="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="17.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8984375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="7.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.59765625" style="7" customWidth="1"/>
+    <col min="12" max="35" width="5.59765625" style="1" customWidth="1"/>
+    <col min="36" max="40" width="3.69921875" style="1" customWidth="1"/>
+    <col min="41" max="43" width="9.09765625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="12.8984375" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.09765625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-    </row>
-    <row r="2" spans="1:45" ht="28.35" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+    </row>
+    <row r="2" spans="1:45" ht="28.4" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="35" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37" t="s">
+      <c r="H3" s="41"/>
+      <c r="I3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="31" t="s">
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
     </row>
     <row r="4" spans="1:45" ht="21.15" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42" t="s">
+      <c r="H4" s="46"/>
+      <c r="I4" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="32" t="s">
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="34"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="39"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1258,18 +1258,18 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:45" s="3" customFormat="1" ht="14.15" customHeight="1">
+      <c r="A6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1278,67 +1278,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="24" t="s">
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="25"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="30"/>
+      <c r="AR6" s="30"/>
       <c r="AS6" s="2"/>
     </row>
-    <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+    <row r="7" spans="1:45" s="3" customFormat="1" ht="14.15" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1446,16 +1446,16 @@
       </c>
       <c r="AS7" s="2"/>
     </row>
-    <row r="8" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A8" s="20">
+    <row r="8" spans="1:45" s="4" customFormat="1" ht="11.75" customHeight="1">
+      <c r="A8" s="18">
         <v>1</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="8">
@@ -1464,10 +1464,10 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="20">
         <v>1</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="12"/>
@@ -1506,25 +1506,25 @@
       <c r="AO8" s="14"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="15"/>
-      <c r="AR8" s="26" t="s">
+      <c r="AR8" s="31" t="s">
         <v>29</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+    <row r="9" spans="1:45" s="4" customFormat="1" ht="11.75" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="8">
         <v>43905</v>
       </c>
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
         <v>15</v>
@@ -1563,17 +1563,17 @@
       <c r="AO9" s="14"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="15"/>
-      <c r="AR9" s="27"/>
+      <c r="AR9" s="32"/>
       <c r="AS9" s="2"/>
     </row>
-    <row r="10" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A10" s="20">
+    <row r="10" spans="1:45" s="4" customFormat="1" ht="11.75" customHeight="1">
+      <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="8">
@@ -1582,8 +1582,8 @@
       <c r="G10" s="8">
         <v>43907</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="12"/>
@@ -1620,21 +1620,21 @@
       <c r="AO10" s="14"/>
       <c r="AP10" s="15"/>
       <c r="AQ10" s="15"/>
-      <c r="AR10" s="27"/>
+      <c r="AR10" s="32"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+    <row r="11" spans="1:45" s="4" customFormat="1" ht="11.75" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="8">
         <v>43906</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="11"/>
@@ -1669,17 +1669,17 @@
       <c r="AO11" s="14"/>
       <c r="AP11" s="15"/>
       <c r="AQ11" s="15"/>
-      <c r="AR11" s="27"/>
+      <c r="AR11" s="32"/>
       <c r="AS11" s="2"/>
     </row>
-    <row r="12" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A12" s="20">
+    <row r="12" spans="1:45" s="4" customFormat="1" ht="11.75" customHeight="1">
+      <c r="A12" s="18">
         <v>3</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="8">
@@ -1688,8 +1688,8 @@
       <c r="G12" s="8">
         <v>43908</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22" t="s">
+      <c r="H12" s="20"/>
+      <c r="I12" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="12"/>
@@ -1728,21 +1728,21 @@
       <c r="AO12" s="14"/>
       <c r="AP12" s="15"/>
       <c r="AQ12" s="15"/>
-      <c r="AR12" s="27"/>
+      <c r="AR12" s="32"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+    <row r="13" spans="1:45" s="4" customFormat="1" ht="11.75" customHeight="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="8">
         <v>43906</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="11" t="s">
@@ -1779,17 +1779,17 @@
       <c r="AO13" s="14"/>
       <c r="AP13" s="15"/>
       <c r="AQ13" s="15"/>
-      <c r="AR13" s="27"/>
+      <c r="AR13" s="32"/>
       <c r="AS13" s="2"/>
     </row>
-    <row r="14" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A14" s="20">
+    <row r="14" spans="1:45" s="4" customFormat="1" ht="11.75" customHeight="1">
+      <c r="A14" s="18">
         <v>4</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="8">
@@ -1798,8 +1798,8 @@
       <c r="G14" s="8">
         <v>43917</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22" t="s">
+      <c r="H14" s="20"/>
+      <c r="I14" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="12"/>
@@ -1838,19 +1838,19 @@
       <c r="AO14" s="14"/>
       <c r="AP14" s="15"/>
       <c r="AQ14" s="15"/>
-      <c r="AR14" s="27"/>
+      <c r="AR14" s="32"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+    <row r="15" spans="1:45" s="4" customFormat="1" ht="11.75" customHeight="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11" t="s">
@@ -1887,17 +1887,17 @@
       <c r="AO15" s="14"/>
       <c r="AP15" s="15"/>
       <c r="AQ15" s="15"/>
-      <c r="AR15" s="27"/>
+      <c r="AR15" s="32"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
-      <c r="A16" s="20">
+      <c r="A16" s="18">
         <v>5</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="49" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="52" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="8">
@@ -1906,8 +1906,8 @@
       <c r="G16" s="8">
         <v>43937</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22" t="s">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="12"/>
@@ -1946,18 +1946,18 @@
       <c r="AO16" s="14"/>
       <c r="AP16" s="15"/>
       <c r="AQ16" s="15"/>
-      <c r="AR16" s="27"/>
+      <c r="AR16" s="32"/>
     </row>
     <row r="17" spans="1:44">
-      <c r="A17" s="20"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="50"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="11" t="s">
@@ -1994,24 +1994,26 @@
       <c r="AO17" s="14"/>
       <c r="AP17" s="15"/>
       <c r="AQ17" s="15"/>
-      <c r="AR17" s="27"/>
+      <c r="AR17" s="32"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1">
-      <c r="A18" s="20">
+      <c r="A18" s="18">
         <v>6</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="8">
         <v>43918</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22" t="s">
+      <c r="G18" s="8">
+        <v>43919</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J18" s="12"/>
@@ -2050,18 +2052,18 @@
       <c r="AO18" s="14"/>
       <c r="AP18" s="15"/>
       <c r="AQ18" s="15"/>
-      <c r="AR18" s="27"/>
+      <c r="AR18" s="32"/>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" s="20"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="51"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11" t="s">
@@ -2098,22 +2100,26 @@
       <c r="AO19" s="14"/>
       <c r="AP19" s="15"/>
       <c r="AQ19" s="15"/>
-      <c r="AR19" s="27"/>
+      <c r="AR19" s="32"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
-      <c r="A20" s="20">
+      <c r="A20" s="18">
         <v>7</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22" t="s">
+      <c r="F20" s="8">
+        <v>43920</v>
+      </c>
+      <c r="G20" s="8">
+        <v>43921</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="12"/>
@@ -2152,18 +2158,18 @@
       <c r="AO20" s="14"/>
       <c r="AP20" s="15"/>
       <c r="AQ20" s="15"/>
-      <c r="AR20" s="27"/>
+      <c r="AR20" s="32"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="20"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="51"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="11" t="s">
@@ -2200,22 +2206,26 @@
       <c r="AO21" s="14"/>
       <c r="AP21" s="15"/>
       <c r="AQ21" s="15"/>
-      <c r="AR21" s="27"/>
-    </row>
-    <row r="22" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A22" s="20">
+      <c r="AR21" s="32"/>
+    </row>
+    <row r="22" spans="1:44" ht="13.25" customHeight="1">
+      <c r="A22" s="18">
         <v>8</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22" t="s">
+      <c r="F22" s="8">
+        <v>43922</v>
+      </c>
+      <c r="G22" s="8">
+        <v>43924</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="12"/>
@@ -2254,18 +2264,18 @@
       <c r="AO22" s="14"/>
       <c r="AP22" s="15"/>
       <c r="AQ22" s="15"/>
-      <c r="AR22" s="27"/>
+      <c r="AR22" s="32"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="20"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="51"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11" t="s">
@@ -2302,24 +2312,26 @@
       <c r="AO23" s="14"/>
       <c r="AP23" s="15"/>
       <c r="AQ23" s="15"/>
-      <c r="AR23" s="27"/>
+      <c r="AR23" s="32"/>
     </row>
     <row r="24" spans="1:44" ht="12" customHeight="1">
-      <c r="A24" s="20">
+      <c r="A24" s="18">
         <v>9</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="8">
+        <v>43925</v>
+      </c>
       <c r="G24" s="8">
         <v>43928</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22" t="s">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="12"/>
@@ -2358,18 +2370,18 @@
       <c r="AO24" s="14"/>
       <c r="AP24" s="15"/>
       <c r="AQ24" s="15"/>
-      <c r="AR24" s="27"/>
+      <c r="AR24" s="32"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="20"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="51"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11" t="s">
@@ -2406,24 +2418,24 @@
       <c r="AO25" s="14"/>
       <c r="AP25" s="15"/>
       <c r="AQ25" s="15"/>
-      <c r="AR25" s="27"/>
+      <c r="AR25" s="32"/>
     </row>
     <row r="26" spans="1:44">
-      <c r="A26" s="20">
+      <c r="A26" s="18">
         <v>10</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="8">
         <v>43918</v>
       </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22" t="s">
+      <c r="H26" s="20"/>
+      <c r="I26" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="12"/>
@@ -2462,18 +2474,18 @@
       <c r="AO26" s="13"/>
       <c r="AP26" s="13"/>
       <c r="AQ26" s="13"/>
-      <c r="AR26" s="27"/>
+      <c r="AR26" s="32"/>
     </row>
     <row r="27" spans="1:44">
-      <c r="A27" s="20"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="51"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="11" t="s">
@@ -2510,22 +2522,22 @@
       <c r="AO27" s="13"/>
       <c r="AP27" s="13"/>
       <c r="AQ27" s="13"/>
-      <c r="AR27" s="27"/>
+      <c r="AR27" s="32"/>
     </row>
     <row r="28" spans="1:44" ht="12" customHeight="1">
-      <c r="A28" s="20">
+      <c r="A28" s="18">
         <v>11</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18" t="s">
         <v>46</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22" t="s">
+      <c r="H28" s="28"/>
+      <c r="I28" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J28" s="12"/>
@@ -2566,18 +2578,18 @@
       <c r="AO28" s="13"/>
       <c r="AP28" s="13"/>
       <c r="AQ28" s="13"/>
-      <c r="AR28" s="27"/>
+      <c r="AR28" s="32"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" s="20"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="23"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="21"/>
       <c r="J29" s="12" t="s">
         <v>15</v>
       </c>
@@ -2640,22 +2652,22 @@
       <c r="AO29" s="13"/>
       <c r="AP29" s="13"/>
       <c r="AQ29" s="13"/>
-      <c r="AR29" s="27"/>
-    </row>
-    <row r="30" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A30" s="20">
+      <c r="AR29" s="32"/>
+    </row>
+    <row r="30" spans="1:44" ht="13.25" customHeight="1">
+      <c r="A30" s="18">
         <v>12</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18" t="s">
         <v>47</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22" t="s">
+      <c r="H30" s="28"/>
+      <c r="I30" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="12"/>
@@ -2702,18 +2714,18 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="27"/>
+      <c r="AR30" s="32"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" s="20"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="23"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="21"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
@@ -2762,24 +2774,24 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="28"/>
-    </row>
-    <row r="32" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A32" s="20">
+      <c r="AR31" s="33"/>
+    </row>
+    <row r="32" spans="1:44" ht="13.25" customHeight="1">
+      <c r="A32" s="18">
         <v>13</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8">
         <v>43928</v>
       </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22" t="s">
+      <c r="H32" s="20"/>
+      <c r="I32" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J32" s="12"/>
@@ -2820,15 +2832,15 @@
       <c r="AQ32" s="15"/>
     </row>
     <row r="33" spans="1:43" ht="12" customHeight="1">
-      <c r="A33" s="20"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="51"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="23"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="21"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="11" t="s">
@@ -2867,21 +2879,21 @@
       <c r="AQ33" s="15"/>
     </row>
     <row r="34" spans="1:43" ht="12" customHeight="1">
-      <c r="A34" s="20">
+      <c r="A34" s="18">
         <v>14</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18" t="s">
         <v>40</v>
       </c>
       <c r="F34" s="8">
         <v>43918</v>
       </c>
       <c r="G34" s="8"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22" t="s">
+      <c r="H34" s="20"/>
+      <c r="I34" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J34" s="12"/>
@@ -2922,15 +2934,15 @@
       <c r="AQ34" s="15"/>
     </row>
     <row r="35" spans="1:43">
-      <c r="A35" s="20"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="51"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11" t="s">
@@ -2969,19 +2981,19 @@
       <c r="AQ35" s="15"/>
     </row>
     <row r="36" spans="1:43">
-      <c r="A36" s="20">
+      <c r="A36" s="18">
         <v>15</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18" t="s">
         <v>49</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22" t="s">
+      <c r="H36" s="20"/>
+      <c r="I36" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J36" s="12"/>
@@ -3022,15 +3034,15 @@
       <c r="AQ36" s="15"/>
     </row>
     <row r="37" spans="1:43">
-      <c r="A37" s="20"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="51"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="21"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="11" t="s">
@@ -3069,19 +3081,19 @@
       <c r="AQ37" s="15"/>
     </row>
     <row r="38" spans="1:43">
-      <c r="A38" s="20">
+      <c r="A38" s="18">
         <v>16</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22" t="s">
+      <c r="H38" s="20"/>
+      <c r="I38" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J38" s="12"/>
@@ -3122,15 +3134,15 @@
       <c r="AQ38" s="15"/>
     </row>
     <row r="39" spans="1:43">
-      <c r="A39" s="20"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="51"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="23"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="21"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="11" t="s">
@@ -3168,20 +3180,20 @@
       <c r="AP39" s="15"/>
       <c r="AQ39" s="15"/>
     </row>
-    <row r="40" spans="1:43" ht="13.2" customHeight="1">
-      <c r="A40" s="20">
+    <row r="40" spans="1:43" ht="13.25" customHeight="1">
+      <c r="A40" s="18">
         <v>17</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18" t="s">
         <v>51</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22" t="s">
+      <c r="H40" s="20"/>
+      <c r="I40" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J40" s="12"/>
@@ -3222,15 +3234,15 @@
       <c r="AQ40" s="15"/>
     </row>
     <row r="41" spans="1:43">
-      <c r="A41" s="20"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="51"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="19"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="23"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="21"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11" t="s">
@@ -3268,22 +3280,22 @@
       <c r="AP41" s="15"/>
       <c r="AQ41" s="15"/>
     </row>
-    <row r="42" spans="1:43" ht="13.2" customHeight="1">
-      <c r="A42" s="20">
+    <row r="42" spans="1:43" ht="13.25" customHeight="1">
+      <c r="A42" s="18">
         <v>18</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8">
         <v>43928</v>
       </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22" t="s">
+      <c r="H42" s="20"/>
+      <c r="I42" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J42" s="12"/>
@@ -3324,15 +3336,15 @@
       <c r="AQ42" s="13"/>
     </row>
     <row r="43" spans="1:43">
-      <c r="A43" s="20"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="51"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="19"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="23"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="21"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11" t="s">
@@ -3370,69 +3382,158 @@
       <c r="AP43" s="13"/>
       <c r="AQ43" s="13"/>
     </row>
-    <row r="47" spans="1:43" ht="13.2" customHeight="1"/>
-    <row r="48" spans="1:43" ht="13.2" customHeight="1"/>
+    <row r="47" spans="1:43" ht="13.25" customHeight="1"/>
+    <row r="48" spans="1:43" ht="13.25" customHeight="1"/>
     <row r="57" spans="1:26">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="47"/>
-      <c r="P57" s="47"/>
-      <c r="Q57" s="47"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="47"/>
-      <c r="T57" s="47"/>
-      <c r="U57" s="47"/>
-      <c r="V57" s="47"/>
-      <c r="W57" s="47"/>
-      <c r="X57" s="47"/>
-      <c r="Y57" s="47"/>
-      <c r="Z57" s="47"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="16"/>
+      <c r="X57" s="16"/>
+      <c r="Y57" s="16"/>
+      <c r="Z57" s="16"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="47"/>
-      <c r="P58" s="47"/>
-      <c r="Q58" s="47"/>
-      <c r="R58" s="47"/>
-      <c r="S58" s="47"/>
-      <c r="T58" s="47"/>
-      <c r="U58" s="47"/>
-      <c r="V58" s="47"/>
-      <c r="W58" s="47"/>
-      <c r="X58" s="47"/>
-      <c r="Y58" s="47"/>
-      <c r="Z58" s="47"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="16"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="113">
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="B34:C43"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="AB6:AR6"/>
+    <mergeCell ref="AR8:AR31"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="L4:AI4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="J6:AA6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="A57:Z58"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
@@ -3457,95 +3558,6 @@
     <mergeCell ref="B18:C25"/>
     <mergeCell ref="B26:C33"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="AB6:AR6"/>
-    <mergeCell ref="AR8:AR31"/>
-    <mergeCell ref="A1:AI2"/>
-    <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="L4:AI4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="J6:AA6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="B34:C43"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/06. 구현 - 조별 프로젝트 공정도.xlsx
+++ b/06. 구현 - 조별 프로젝트 공정도.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWDO_PJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SWDO_PJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
   <si>
     <t>No</t>
   </si>
@@ -178,52 +178,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>그룹 멤버 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 메모, 그룹 사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표 게시물 선택(공지사항)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대코드 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 초대 및 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 게시물 수정, 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해시태그, 쪽지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김보성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>아이디 및 비밀번호 찾기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>그룹 게시물 게재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그룹 멤버 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 메모, 그룹 사진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대표 게시물 선택(공지사항)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초대코드 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 초대 및 탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 게시물 수정, 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해시태그, 쪽지</t>
+    <t>캘린더 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M03, M04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M11, M12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M19, M20, M21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M08, M09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M15, M16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M18, M22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M01, M02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M13, M14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd"/>
+    <numFmt numFmtId="176" formatCode="dd"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -545,7 +633,7 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,121 +654,121 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -765,7 +853,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1054,196 +1142,196 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS58"/>
+  <dimension ref="A1:AS64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="7.09765625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="28" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.8984375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="7.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.59765625" style="7" customWidth="1"/>
-    <col min="12" max="35" width="5.59765625" style="1" customWidth="1"/>
-    <col min="36" max="40" width="3.69921875" style="1" customWidth="1"/>
-    <col min="41" max="43" width="9.09765625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="12.8984375" style="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.09765625" style="2"/>
+    <col min="6" max="6" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5546875" style="7" customWidth="1"/>
+    <col min="12" max="35" width="5.5546875" style="1" customWidth="1"/>
+    <col min="36" max="40" width="3.6640625" style="1" customWidth="1"/>
+    <col min="41" max="43" width="9.109375" style="1" customWidth="1"/>
+    <col min="44" max="44" width="12.88671875" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-    </row>
-    <row r="2" spans="1:45" ht="28.4" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+    </row>
+    <row r="2" spans="1:45" ht="28.35" customHeight="1">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="40" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42" t="s">
+      <c r="H3" s="40"/>
+      <c r="I3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="36" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
     </row>
     <row r="4" spans="1:45" ht="21.15" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47" t="s">
+      <c r="H4" s="45"/>
+      <c r="I4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="37" t="s">
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="39"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="38"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1258,18 +1346,18 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:45" s="3" customFormat="1" ht="14.15" customHeight="1">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A6" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="53" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1278,67 +1366,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="29" t="s">
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="30"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
-      <c r="AQ6" s="30"/>
-      <c r="AR6" s="30"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="29"/>
+      <c r="AO6" s="29"/>
+      <c r="AP6" s="29"/>
+      <c r="AQ6" s="29"/>
+      <c r="AR6" s="29"/>
       <c r="AS6" s="2"/>
     </row>
-    <row r="7" spans="1:45" s="3" customFormat="1" ht="14.15" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+    <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1446,7 +1534,7 @@
       </c>
       <c r="AS7" s="2"/>
     </row>
-    <row r="8" spans="1:45" s="4" customFormat="1" ht="11.75" customHeight="1">
+    <row r="8" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A8" s="18">
         <v>1</v>
       </c>
@@ -1464,10 +1552,10 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="16">
         <v>1</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="16" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="12"/>
@@ -1506,12 +1594,12 @@
       <c r="AO8" s="14"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="15"/>
-      <c r="AR8" s="31" t="s">
+      <c r="AR8" s="30" t="s">
         <v>29</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45" s="4" customFormat="1" ht="11.75" customHeight="1">
+    <row r="9" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A9" s="18"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
@@ -1523,8 +1611,8 @@
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
         <v>15</v>
@@ -1563,10 +1651,10 @@
       <c r="AO9" s="14"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="15"/>
-      <c r="AR9" s="32"/>
+      <c r="AR9" s="31"/>
       <c r="AS9" s="2"/>
     </row>
-    <row r="10" spans="1:45" s="4" customFormat="1" ht="11.75" customHeight="1">
+    <row r="10" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A10" s="18">
         <v>2</v>
       </c>
@@ -1582,10 +1670,8 @@
       <c r="G10" s="8">
         <v>43907</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="11"/>
@@ -1620,10 +1706,10 @@
       <c r="AO10" s="14"/>
       <c r="AP10" s="15"/>
       <c r="AQ10" s="15"/>
-      <c r="AR10" s="32"/>
+      <c r="AR10" s="31"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" s="4" customFormat="1" ht="11.75" customHeight="1">
+    <row r="11" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A11" s="18"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
@@ -1633,8 +1719,8 @@
         <v>43906</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="11"/>
@@ -1669,10 +1755,10 @@
       <c r="AO11" s="14"/>
       <c r="AP11" s="15"/>
       <c r="AQ11" s="15"/>
-      <c r="AR11" s="32"/>
+      <c r="AR11" s="31"/>
       <c r="AS11" s="2"/>
     </row>
-    <row r="12" spans="1:45" s="4" customFormat="1" ht="11.75" customHeight="1">
+    <row r="12" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A12" s="18">
         <v>3</v>
       </c>
@@ -1688,10 +1774,8 @@
       <c r="G12" s="8">
         <v>43908</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="11" t="s">
@@ -1728,10 +1812,10 @@
       <c r="AO12" s="14"/>
       <c r="AP12" s="15"/>
       <c r="AQ12" s="15"/>
-      <c r="AR12" s="32"/>
+      <c r="AR12" s="31"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45" s="4" customFormat="1" ht="11.75" customHeight="1">
+    <row r="13" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -1741,8 +1825,8 @@
         <v>43906</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="11" t="s">
@@ -1779,10 +1863,10 @@
       <c r="AO13" s="14"/>
       <c r="AP13" s="15"/>
       <c r="AQ13" s="15"/>
-      <c r="AR13" s="32"/>
+      <c r="AR13" s="31"/>
       <c r="AS13" s="2"/>
     </row>
-    <row r="14" spans="1:45" s="4" customFormat="1" ht="11.75" customHeight="1">
+    <row r="14" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A14" s="18">
         <v>4</v>
       </c>
@@ -1798,10 +1882,8 @@
       <c r="G14" s="8">
         <v>43917</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="11" t="s">
@@ -1838,10 +1920,10 @@
       <c r="AO14" s="14"/>
       <c r="AP14" s="15"/>
       <c r="AQ14" s="15"/>
-      <c r="AR14" s="32"/>
+      <c r="AR14" s="31"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45" s="4" customFormat="1" ht="11.75" customHeight="1">
+    <row r="15" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="24"/>
       <c r="C15" s="25"/>
@@ -1849,8 +1931,8 @@
       <c r="E15" s="18"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11" t="s">
@@ -1887,7 +1969,7 @@
       <c r="AO15" s="14"/>
       <c r="AP15" s="15"/>
       <c r="AQ15" s="15"/>
-      <c r="AR15" s="32"/>
+      <c r="AR15" s="31"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
@@ -1897,7 +1979,7 @@
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="18"/>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="19" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="8">
@@ -1906,10 +1988,8 @@
       <c r="G16" s="8">
         <v>43937</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11" t="s">
@@ -1946,18 +2026,18 @@
       <c r="AO16" s="14"/>
       <c r="AP16" s="15"/>
       <c r="AQ16" s="15"/>
-      <c r="AR16" s="32"/>
+      <c r="AR16" s="31"/>
     </row>
     <row r="17" spans="1:44">
       <c r="A17" s="18"/>
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="53"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="11" t="s">
@@ -1994,28 +2074,30 @@
       <c r="AO17" s="14"/>
       <c r="AP17" s="15"/>
       <c r="AQ17" s="15"/>
-      <c r="AR17" s="32"/>
+      <c r="AR17" s="31"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1">
       <c r="A18" s="18">
         <v>6</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="E18" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="8">
-        <v>43918</v>
+        <v>43911</v>
       </c>
       <c r="G18" s="8">
-        <v>43919</v>
-      </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>43913</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="11" t="s">
@@ -2052,18 +2134,18 @@
       <c r="AO18" s="14"/>
       <c r="AP18" s="15"/>
       <c r="AQ18" s="15"/>
-      <c r="AR18" s="32"/>
+      <c r="AR18" s="31"/>
     </row>
     <row r="19" spans="1:44">
       <c r="A19" s="18"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11" t="s">
@@ -2100,7 +2182,7 @@
       <c r="AO19" s="14"/>
       <c r="AP19" s="15"/>
       <c r="AQ19" s="15"/>
-      <c r="AR19" s="32"/>
+      <c r="AR19" s="31"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
       <c r="A20" s="18">
@@ -2108,20 +2190,20 @@
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="E20" s="18" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="8">
-        <v>43920</v>
+        <v>43915</v>
       </c>
       <c r="G20" s="8">
-        <v>43921</v>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>43917</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="11" t="s">
@@ -2158,18 +2240,18 @@
       <c r="AO20" s="14"/>
       <c r="AP20" s="15"/>
       <c r="AQ20" s="15"/>
-      <c r="AR20" s="32"/>
+      <c r="AR20" s="31"/>
     </row>
     <row r="21" spans="1:44">
       <c r="A21" s="18"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="11" t="s">
@@ -2206,33 +2288,31 @@
       <c r="AO21" s="14"/>
       <c r="AP21" s="15"/>
       <c r="AQ21" s="15"/>
-      <c r="AR21" s="32"/>
-    </row>
-    <row r="22" spans="1:44" ht="13.25" customHeight="1">
+      <c r="AR21" s="31"/>
+    </row>
+    <row r="22" spans="1:44">
       <c r="A22" s="18">
         <v>8</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="18"/>
+      <c r="D22" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="E22" s="18" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F22" s="8">
-        <v>43922</v>
+        <v>43919</v>
       </c>
       <c r="G22" s="8">
-        <v>43924</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>43921</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
-      <c r="L22" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
@@ -2264,23 +2344,21 @@
       <c r="AO22" s="14"/>
       <c r="AP22" s="15"/>
       <c r="AQ22" s="15"/>
-      <c r="AR22" s="32"/>
+      <c r="AR22" s="31"/>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" s="18"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
@@ -2312,28 +2390,28 @@
       <c r="AO23" s="14"/>
       <c r="AP23" s="15"/>
       <c r="AQ23" s="15"/>
-      <c r="AR23" s="32"/>
-    </row>
-    <row r="24" spans="1:44" ht="12" customHeight="1">
+      <c r="AR23" s="31"/>
+    </row>
+    <row r="24" spans="1:44" ht="13.2" customHeight="1">
       <c r="A24" s="18">
         <v>9</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="18"/>
+      <c r="D24" s="18" t="s">
+        <v>74</v>
+      </c>
       <c r="E24" s="18" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F24" s="8">
-        <v>43925</v>
+        <v>43922</v>
       </c>
       <c r="G24" s="8">
-        <v>43928</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>43923</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="11" t="s">
@@ -2370,18 +2448,18 @@
       <c r="AO24" s="14"/>
       <c r="AP24" s="15"/>
       <c r="AQ24" s="15"/>
-      <c r="AR24" s="32"/>
+      <c r="AR24" s="31"/>
     </row>
     <row r="25" spans="1:44">
       <c r="A25" s="18"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11" t="s">
@@ -2418,26 +2496,28 @@
       <c r="AO25" s="14"/>
       <c r="AP25" s="15"/>
       <c r="AQ25" s="15"/>
-      <c r="AR25" s="32"/>
-    </row>
-    <row r="26" spans="1:44">
+      <c r="AR25" s="31"/>
+    </row>
+    <row r="26" spans="1:44" ht="12" customHeight="1">
       <c r="A26" s="18">
         <v>10</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="E26" s="18" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F26" s="8">
-        <v>43918</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>43924</v>
+      </c>
+      <c r="G26" s="8">
+        <v>43928</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="11" t="s">
@@ -2456,36 +2536,36 @@
       <c r="W26" s="13"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
-      <c r="Z26" s="13"/>
+      <c r="Z26" s="15"/>
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
       <c r="AC26" s="13"/>
       <c r="AD26" s="13"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="12"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
       <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
+      <c r="AK26" s="14"/>
       <c r="AL26" s="12"/>
       <c r="AM26" s="12"/>
       <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-      <c r="AP26" s="13"/>
-      <c r="AQ26" s="13"/>
-      <c r="AR26" s="32"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="15"/>
+      <c r="AR26" s="31"/>
     </row>
     <row r="27" spans="1:44">
       <c r="A27" s="18"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="21"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="11" t="s">
@@ -2504,51 +2584,53 @@
       <c r="W27" s="13"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
-      <c r="Z27" s="13"/>
+      <c r="Z27" s="15"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="13"/>
       <c r="AC27" s="13"/>
       <c r="AD27" s="13"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
       <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
+      <c r="AK27" s="14"/>
       <c r="AL27" s="12"/>
       <c r="AM27" s="12"/>
       <c r="AN27" s="13"/>
-      <c r="AO27" s="13"/>
-      <c r="AP27" s="13"/>
-      <c r="AQ27" s="13"/>
-      <c r="AR27" s="32"/>
-    </row>
-    <row r="28" spans="1:44" ht="12" customHeight="1">
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="15"/>
+      <c r="AR27" s="31"/>
+    </row>
+    <row r="28" spans="1:44">
       <c r="A28" s="18">
         <v>11</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="E28" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F28" s="8">
+        <v>43912</v>
+      </c>
+      <c r="G28" s="8">
+        <v>43914</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="11"/>
-      <c r="M28" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="12"/>
@@ -2560,119 +2642,97 @@
       <c r="W28" s="13"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
-      <c r="Z28" s="13"/>
+      <c r="Z28" s="15"/>
       <c r="AA28" s="13"/>
       <c r="AB28" s="13"/>
       <c r="AC28" s="13"/>
       <c r="AD28" s="13"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="12"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="15"/>
       <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
+      <c r="AK28" s="14"/>
       <c r="AL28" s="12"/>
       <c r="AM28" s="12"/>
       <c r="AN28" s="13"/>
-      <c r="AO28" s="13"/>
-      <c r="AP28" s="13"/>
-      <c r="AQ28" s="13"/>
-      <c r="AR28" s="32"/>
+      <c r="AO28" s="14"/>
+      <c r="AP28" s="15"/>
+      <c r="AQ28" s="15"/>
+      <c r="AR28" s="31"/>
     </row>
     <row r="29" spans="1:44">
       <c r="A29" s="18"/>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="O29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="P29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R29" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
-      <c r="X29" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y29" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="13"/>
       <c r="AB29" s="13"/>
       <c r="AC29" s="13"/>
       <c r="AD29" s="13"/>
-      <c r="AE29" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF29" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
       <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM29" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AK29" s="14"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
       <c r="AN29" s="13"/>
-      <c r="AO29" s="13"/>
-      <c r="AP29" s="13"/>
-      <c r="AQ29" s="13"/>
-      <c r="AR29" s="32"/>
-    </row>
-    <row r="30" spans="1:44" ht="13.25" customHeight="1">
+      <c r="AO29" s="14"/>
+      <c r="AP29" s="15"/>
+      <c r="AQ29" s="15"/>
+      <c r="AR29" s="31"/>
+    </row>
+    <row r="30" spans="1:44">
       <c r="A30" s="18">
         <v>12</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="E30" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F30" s="8">
+        <v>43915</v>
+      </c>
+      <c r="G30" s="8">
+        <v>43917</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="11"/>
+      <c r="L30" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="M30" s="11"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -2680,27 +2740,17 @@
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
       <c r="S30" s="13"/>
-      <c r="T30" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="U30" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="V30" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
       <c r="W30" s="13"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
       <c r="AB30" s="13"/>
-      <c r="AC30" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD30" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
       <c r="AE30" s="12"/>
       <c r="AF30" s="12"/>
       <c r="AG30" s="13"/>
@@ -2714,53 +2764,41 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="32"/>
+      <c r="AR30" s="31"/>
     </row>
     <row r="31" spans="1:44">
       <c r="A31" s="18"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="21"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="11"/>
+      <c r="L31" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="M31" s="11"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
       <c r="P31" s="13"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
-      <c r="S31" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="T31" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="U31" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="V31" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
       <c r="W31" s="13"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
-      <c r="AB31" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC31" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD31" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
       <c r="AE31" s="12"/>
       <c r="AF31" s="12"/>
       <c r="AG31" s="13"/>
@@ -2774,33 +2812,37 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="33"/>
-    </row>
-    <row r="32" spans="1:44" ht="13.25" customHeight="1">
+      <c r="AR31" s="31"/>
+    </row>
+    <row r="32" spans="1:44" ht="12" customHeight="1">
       <c r="A32" s="18">
         <v>13</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
-      <c r="D32" s="18"/>
+      <c r="D32" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="E32" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="F32" s="8">
+        <v>43918</v>
+      </c>
       <c r="G32" s="8">
-        <v>43928</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>43923</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="16"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="11"/>
+      <c r="M32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="13"/>
+      <c r="N32" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="O32" s="13"/>
       <c r="P32" s="13"/>
       <c r="Q32" s="12"/>
@@ -2812,95 +2854,119 @@
       <c r="W32" s="13"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
-      <c r="Z32" s="15"/>
+      <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
       <c r="AB32" s="13"/>
       <c r="AC32" s="13"/>
       <c r="AD32" s="13"/>
       <c r="AE32" s="12"/>
       <c r="AF32" s="12"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="15"/>
-      <c r="AI32" s="15"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
       <c r="AJ32" s="13"/>
-      <c r="AK32" s="14"/>
+      <c r="AK32" s="13"/>
       <c r="AL32" s="12"/>
       <c r="AM32" s="12"/>
       <c r="AN32" s="13"/>
-      <c r="AO32" s="14"/>
-      <c r="AP32" s="15"/>
-      <c r="AQ32" s="15"/>
-    </row>
-    <row r="33" spans="1:43" ht="12" customHeight="1">
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="13"/>
+      <c r="AQ32" s="13"/>
+      <c r="AR32" s="31"/>
+    </row>
+    <row r="33" spans="1:44">
       <c r="A33" s="18"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="21"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
-      <c r="L33" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="L33" s="11"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
+      <c r="N33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="13"/>
+      <c r="X33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="AB33" s="13"/>
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="15"/>
-      <c r="AI33" s="15"/>
+      <c r="AE33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
       <c r="AJ33" s="13"/>
-      <c r="AK33" s="14"/>
-      <c r="AL33" s="12"/>
-      <c r="AM33" s="12"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM33" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AN33" s="13"/>
-      <c r="AO33" s="14"/>
-      <c r="AP33" s="15"/>
-      <c r="AQ33" s="15"/>
-    </row>
-    <row r="34" spans="1:43" ht="12" customHeight="1">
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="13"/>
+      <c r="AQ33" s="13"/>
+      <c r="AR33" s="31"/>
+    </row>
+    <row r="34" spans="1:44" ht="13.2" customHeight="1">
       <c r="A34" s="18">
         <v>14</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="18"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="18" t="s">
+        <v>65</v>
+      </c>
       <c r="E34" s="18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F34" s="8">
-        <v>43918</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>43924</v>
+      </c>
+      <c r="G34" s="8">
+        <v>43925</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="16"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
-      <c r="L34" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="L34" s="11"/>
       <c r="M34" s="11"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
@@ -2908,94 +2974,122 @@
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
+      <c r="T34" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="U34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="V34" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="W34" s="13"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
-      <c r="Z34" s="15"/>
+      <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
       <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
+      <c r="AC34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD34" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="AE34" s="12"/>
       <c r="AF34" s="12"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="15"/>
-      <c r="AI34" s="15"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
       <c r="AJ34" s="13"/>
-      <c r="AK34" s="14"/>
+      <c r="AK34" s="13"/>
       <c r="AL34" s="12"/>
       <c r="AM34" s="12"/>
       <c r="AN34" s="13"/>
-      <c r="AO34" s="14"/>
-      <c r="AP34" s="15"/>
-      <c r="AQ34" s="15"/>
-    </row>
-    <row r="35" spans="1:43">
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="13"/>
+      <c r="AQ34" s="13"/>
+      <c r="AR34" s="31"/>
+    </row>
+    <row r="35" spans="1:44">
       <c r="A35" s="18"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="21"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
+      <c r="S35" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="T35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="V35" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="W35" s="13"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
-      <c r="Z35" s="15"/>
+      <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
+      <c r="AB35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD35" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="AE35" s="12"/>
       <c r="AF35" s="12"/>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="15"/>
-      <c r="AI35" s="15"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
       <c r="AJ35" s="13"/>
-      <c r="AK35" s="14"/>
+      <c r="AK35" s="13"/>
       <c r="AL35" s="12"/>
       <c r="AM35" s="12"/>
       <c r="AN35" s="13"/>
-      <c r="AO35" s="14"/>
-      <c r="AP35" s="15"/>
-      <c r="AQ35" s="15"/>
-    </row>
-    <row r="36" spans="1:43">
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="13"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="32"/>
+    </row>
+    <row r="36" spans="1:44" ht="13.2" customHeight="1">
       <c r="A36" s="18">
         <v>15</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
-      <c r="D36" s="18"/>
+      <c r="D36" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="E36" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F36" s="8">
+        <v>43926</v>
+      </c>
+      <c r="G36" s="8">
+        <v>43928</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="11" t="s">
@@ -3033,16 +3127,16 @@
       <c r="AP36" s="15"/>
       <c r="AQ36" s="15"/>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:44" ht="12" customHeight="1">
       <c r="A37" s="18"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="18"/>
-      <c r="E37" s="19"/>
+      <c r="E37" s="21"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="21"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="11" t="s">
@@ -3080,22 +3174,28 @@
       <c r="AP37" s="15"/>
       <c r="AQ37" s="15"/>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:44" ht="12" customHeight="1">
       <c r="A38" s="18">
         <v>16</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="E38" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F38" s="8">
+        <v>43912</v>
+      </c>
+      <c r="G38" s="8">
+        <v>43913</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="11" t="s">
@@ -3133,16 +3233,16 @@
       <c r="AP38" s="15"/>
       <c r="AQ38" s="15"/>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:44">
       <c r="A39" s="18"/>
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="21"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="11" t="s">
@@ -3180,22 +3280,26 @@
       <c r="AP39" s="15"/>
       <c r="AQ39" s="15"/>
     </row>
-    <row r="40" spans="1:43" ht="13.25" customHeight="1">
+    <row r="40" spans="1:44">
       <c r="A40" s="18">
         <v>17</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
-      <c r="D40" s="18"/>
+      <c r="D40" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="E40" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F40" s="8">
+        <v>43914</v>
+      </c>
+      <c r="G40" s="8">
+        <v>43916</v>
+      </c>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="11" t="s">
@@ -3233,16 +3337,16 @@
       <c r="AP40" s="15"/>
       <c r="AQ40" s="15"/>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:44">
       <c r="A41" s="18"/>
       <c r="B41" s="24"/>
       <c r="C41" s="25"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11" t="s">
@@ -3280,24 +3384,26 @@
       <c r="AP41" s="15"/>
       <c r="AQ41" s="15"/>
     </row>
-    <row r="42" spans="1:43" ht="13.25" customHeight="1">
+    <row r="42" spans="1:44">
       <c r="A42" s="18">
         <v>18</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="25"/>
-      <c r="D42" s="18"/>
+      <c r="D42" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="E42" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="F42" s="8">
+        <v>43917</v>
+      </c>
       <c r="G42" s="8">
-        <v>43928</v>
-      </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20" t="s">
-        <v>23</v>
-      </c>
+        <v>43918</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="11" t="s">
@@ -3316,35 +3422,35 @@
       <c r="W42" s="13"/>
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
-      <c r="Z42" s="13"/>
+      <c r="Z42" s="15"/>
       <c r="AA42" s="13"/>
       <c r="AB42" s="13"/>
       <c r="AC42" s="13"/>
       <c r="AD42" s="13"/>
       <c r="AE42" s="12"/>
       <c r="AF42" s="12"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="13"/>
-      <c r="AI42" s="13"/>
+      <c r="AG42" s="14"/>
+      <c r="AH42" s="15"/>
+      <c r="AI42" s="15"/>
       <c r="AJ42" s="13"/>
-      <c r="AK42" s="13"/>
+      <c r="AK42" s="14"/>
       <c r="AL42" s="12"/>
       <c r="AM42" s="12"/>
       <c r="AN42" s="13"/>
-      <c r="AO42" s="13"/>
-      <c r="AP42" s="13"/>
-      <c r="AQ42" s="13"/>
-    </row>
-    <row r="43" spans="1:43">
+      <c r="AO42" s="14"/>
+      <c r="AP42" s="15"/>
+      <c r="AQ42" s="15"/>
+    </row>
+    <row r="43" spans="1:44">
       <c r="A43" s="18"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
+      <c r="E43" s="21"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="21"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11" t="s">
@@ -3363,178 +3469,397 @@
       <c r="W43" s="13"/>
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
-      <c r="Z43" s="13"/>
+      <c r="Z43" s="15"/>
       <c r="AA43" s="13"/>
       <c r="AB43" s="13"/>
       <c r="AC43" s="13"/>
       <c r="AD43" s="13"/>
       <c r="AE43" s="12"/>
       <c r="AF43" s="12"/>
-      <c r="AG43" s="13"/>
-      <c r="AH43" s="13"/>
-      <c r="AI43" s="13"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="15"/>
+      <c r="AI43" s="15"/>
       <c r="AJ43" s="13"/>
-      <c r="AK43" s="13"/>
+      <c r="AK43" s="14"/>
       <c r="AL43" s="12"/>
       <c r="AM43" s="12"/>
       <c r="AN43" s="13"/>
-      <c r="AO43" s="13"/>
-      <c r="AP43" s="13"/>
-      <c r="AQ43" s="13"/>
-    </row>
-    <row r="47" spans="1:43" ht="13.25" customHeight="1"/>
-    <row r="48" spans="1:43" ht="13.25" customHeight="1"/>
-    <row r="57" spans="1:26">
-      <c r="A57" s="16" t="s">
+      <c r="AO43" s="14"/>
+      <c r="AP43" s="15"/>
+      <c r="AQ43" s="15"/>
+    </row>
+    <row r="44" spans="1:44">
+      <c r="A44" s="18">
+        <v>19</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="8">
+        <v>43919</v>
+      </c>
+      <c r="G44" s="8">
+        <v>43920</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="14"/>
+      <c r="AH44" s="15"/>
+      <c r="AI44" s="15"/>
+      <c r="AJ44" s="13"/>
+      <c r="AK44" s="14"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="13"/>
+      <c r="AO44" s="14"/>
+      <c r="AP44" s="15"/>
+      <c r="AQ44" s="15"/>
+    </row>
+    <row r="45" spans="1:44">
+      <c r="A45" s="18"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13"/>
+      <c r="AC45" s="13"/>
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="15"/>
+      <c r="AI45" s="15"/>
+      <c r="AJ45" s="13"/>
+      <c r="AK45" s="14"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="13"/>
+      <c r="AO45" s="14"/>
+      <c r="AP45" s="15"/>
+      <c r="AQ45" s="15"/>
+    </row>
+    <row r="46" spans="1:44" ht="13.2" customHeight="1">
+      <c r="A46" s="18">
+        <v>20</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="8">
+        <v>43920</v>
+      </c>
+      <c r="G46" s="8">
+        <v>43921</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M46" s="11"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="13"/>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="15"/>
+      <c r="AI46" s="15"/>
+      <c r="AJ46" s="13"/>
+      <c r="AK46" s="14"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="12"/>
+      <c r="AN46" s="13"/>
+      <c r="AO46" s="14"/>
+      <c r="AP46" s="15"/>
+      <c r="AQ46" s="15"/>
+    </row>
+    <row r="47" spans="1:44">
+      <c r="A47" s="18"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47" s="11"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="13"/>
+      <c r="AC47" s="13"/>
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="14"/>
+      <c r="AH47" s="15"/>
+      <c r="AI47" s="15"/>
+      <c r="AJ47" s="13"/>
+      <c r="AK47" s="14"/>
+      <c r="AL47" s="12"/>
+      <c r="AM47" s="12"/>
+      <c r="AN47" s="13"/>
+      <c r="AO47" s="14"/>
+      <c r="AP47" s="15"/>
+      <c r="AQ47" s="15"/>
+    </row>
+    <row r="48" spans="1:44" ht="13.2" customHeight="1">
+      <c r="A48" s="18">
+        <v>21</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="8">
+        <v>43922</v>
+      </c>
+      <c r="G48" s="8">
+        <v>43928</v>
+      </c>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48" s="11"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="13"/>
+      <c r="AI48" s="13"/>
+      <c r="AJ48" s="13"/>
+      <c r="AK48" s="13"/>
+      <c r="AL48" s="12"/>
+      <c r="AM48" s="12"/>
+      <c r="AN48" s="13"/>
+      <c r="AO48" s="13"/>
+      <c r="AP48" s="13"/>
+      <c r="AQ48" s="13"/>
+    </row>
+    <row r="49" spans="1:43">
+      <c r="A49" s="18"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M49" s="11"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="13"/>
+      <c r="AC49" s="13"/>
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="13"/>
+      <c r="AI49" s="13"/>
+      <c r="AJ49" s="13"/>
+      <c r="AK49" s="13"/>
+      <c r="AL49" s="12"/>
+      <c r="AM49" s="12"/>
+      <c r="AN49" s="13"/>
+      <c r="AO49" s="13"/>
+      <c r="AP49" s="13"/>
+      <c r="AQ49" s="13"/>
+    </row>
+    <row r="53" spans="1:43" ht="13.2" customHeight="1"/>
+    <row r="54" spans="1:43" ht="13.2" customHeight="1"/>
+    <row r="63" spans="1:43">
+      <c r="A63" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
-      <c r="T57" s="16"/>
-      <c r="U57" s="16"/>
-      <c r="V57" s="16"/>
-      <c r="W57" s="16"/>
-      <c r="X57" s="16"/>
-      <c r="Y57" s="16"/>
-      <c r="Z57" s="16"/>
-    </row>
-    <row r="58" spans="1:26">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-      <c r="T58" s="16"/>
-      <c r="U58" s="16"/>
-      <c r="V58" s="16"/>
-      <c r="W58" s="16"/>
-      <c r="X58" s="16"/>
-      <c r="Y58" s="16"/>
-      <c r="Z58" s="16"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="52"/>
+      <c r="R63" s="52"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="52"/>
+      <c r="U63" s="52"/>
+      <c r="V63" s="52"/>
+      <c r="W63" s="52"/>
+      <c r="X63" s="52"/>
+      <c r="Y63" s="52"/>
+      <c r="Z63" s="52"/>
+    </row>
+    <row r="64" spans="1:43">
+      <c r="A64" s="52"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="52"/>
+      <c r="R64" s="52"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="52"/>
+      <c r="U64" s="52"/>
+      <c r="V64" s="52"/>
+      <c r="W64" s="52"/>
+      <c r="X64" s="52"/>
+      <c r="Y64" s="52"/>
+      <c r="Z64" s="52"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="113">
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="B34:C43"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="AB6:AR6"/>
-    <mergeCell ref="AR8:AR31"/>
-    <mergeCell ref="A1:AI2"/>
-    <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="L4:AI4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="J6:AA6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A57:Z58"/>
+  <mergeCells count="128">
+    <mergeCell ref="A63:Z64"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -3555,9 +3880,113 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="B8:C17"/>
-    <mergeCell ref="B18:C25"/>
-    <mergeCell ref="B26:C33"/>
+    <mergeCell ref="B18:C27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C37"/>
+    <mergeCell ref="AB6:AR6"/>
+    <mergeCell ref="AR8:AR35"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="L4:AI4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="J6:AA6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B38:C49"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/06. 구현 - 조별 프로젝트 공정도.xlsx
+++ b/06. 구현 - 조별 프로젝트 공정도.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -45,65 +45,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※정렬순서는 담당자 업무 분장별로 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>□</t>
+  </si>
+  <si>
     <t>■</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구사항 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※정렬순서는 담당자 업무 분장별로 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>□</t>
-  </si>
-  <si>
-    <t>■</t>
-  </si>
-  <si>
-    <t>□</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>□</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>■</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>조원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>□</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>■</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>■</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -313,7 +285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -327,13 +299,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="바탕체"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="바탕체"/>
       <family val="1"/>
@@ -438,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -606,17 +571,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -633,10 +672,10 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -648,11 +687,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -660,111 +705,186 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1144,8 +1264,8 @@
   </sheetPr>
   <dimension ref="A1:AS64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D21"/>
+    <sheetView tabSelected="1" topLeftCell="I19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1159,179 +1279,177 @@
     <col min="7" max="7" width="16.88671875" style="6" customWidth="1"/>
     <col min="8" max="8" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.5546875" style="7" customWidth="1"/>
-    <col min="12" max="35" width="5.5546875" style="1" customWidth="1"/>
-    <col min="36" max="40" width="3.6640625" style="1" customWidth="1"/>
-    <col min="41" max="43" width="9.109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="4.77734375" style="7" customWidth="1"/>
+    <col min="12" max="43" width="4.77734375" style="1" customWidth="1"/>
     <col min="44" max="44" width="12.88671875" style="1" customWidth="1"/>
     <col min="45" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
+      <c r="A1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
     </row>
     <row r="2" spans="1:45" ht="28.35" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+    </row>
+    <row r="4" spans="1:45" ht="21.15" customHeight="1">
+      <c r="A4" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-    </row>
-    <row r="4" spans="1:45" ht="21.15" customHeight="1">
-      <c r="A4" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="38"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="37"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1347,18 +1465,18 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>11</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>1</v>
@@ -1366,67 +1484,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="29"/>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="29"/>
-      <c r="AP6" s="29"/>
-      <c r="AQ6" s="29"/>
-      <c r="AR6" s="29"/>
+      <c r="J6" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="28"/>
       <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1535,16 +1653,16 @@
       <c r="AS7" s="2"/>
     </row>
     <row r="8" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A8" s="18">
+      <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
-        <v>35</v>
+      <c r="B8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="F8" s="8">
         <v>43905</v>
@@ -1552,15 +1670,15 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="18">
         <v>1</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>23</v>
+      <c r="I8" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -1576,49 +1694,49 @@
       <c r="W8" s="13"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
-      <c r="Z8" s="15"/>
+      <c r="Z8" s="77"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
       <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="77"/>
       <c r="AJ8" s="13"/>
-      <c r="AK8" s="14"/>
+      <c r="AK8" s="77"/>
       <c r="AL8" s="12"/>
       <c r="AM8" s="12"/>
       <c r="AN8" s="13"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="15"/>
-      <c r="AQ8" s="15"/>
-      <c r="AR8" s="30" t="s">
-        <v>29</v>
+      <c r="AO8" s="77"/>
+      <c r="AP8" s="77"/>
+      <c r="AQ8" s="77"/>
+      <c r="AR8" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="8">
         <v>43905</v>
       </c>
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="13"/>
@@ -1633,36 +1751,36 @@
       <c r="W9" s="13"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
-      <c r="Z9" s="15"/>
+      <c r="Z9" s="77"/>
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
       <c r="AJ9" s="13"/>
-      <c r="AK9" s="14"/>
+      <c r="AK9" s="77"/>
       <c r="AL9" s="12"/>
       <c r="AM9" s="12"/>
       <c r="AN9" s="13"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="15"/>
-      <c r="AR9" s="31"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="77"/>
+      <c r="AQ9" s="77"/>
+      <c r="AR9" s="30"/>
       <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18" t="s">
-        <v>37</v>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="F10" s="8">
         <v>43906</v>
@@ -1670,12 +1788,16 @@
       <c r="G10" s="8">
         <v>43907</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="L10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
@@ -1688,39 +1810,39 @@
       <c r="W10" s="13"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
-      <c r="Z10" s="15"/>
+      <c r="Z10" s="77"/>
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="12"/>
       <c r="AF10" s="12"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
       <c r="AJ10" s="13"/>
-      <c r="AK10" s="14"/>
+      <c r="AK10" s="77"/>
       <c r="AL10" s="12"/>
       <c r="AM10" s="12"/>
       <c r="AN10" s="13"/>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="15"/>
-      <c r="AQ10" s="15"/>
-      <c r="AR10" s="31"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
+      <c r="AQ10" s="77"/>
+      <c r="AR10" s="30"/>
       <c r="AS10" s="2"/>
     </row>
     <row r="11" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="8">
         <v>43906</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="11"/>
@@ -1737,36 +1859,36 @@
       <c r="W11" s="13"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
-      <c r="Z11" s="15"/>
+      <c r="Z11" s="77"/>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="77"/>
       <c r="AJ11" s="13"/>
-      <c r="AK11" s="14"/>
+      <c r="AK11" s="77"/>
       <c r="AL11" s="12"/>
       <c r="AM11" s="12"/>
       <c r="AN11" s="13"/>
-      <c r="AO11" s="14"/>
-      <c r="AP11" s="15"/>
-      <c r="AQ11" s="15"/>
-      <c r="AR11" s="31"/>
+      <c r="AO11" s="77"/>
+      <c r="AP11" s="77"/>
+      <c r="AQ11" s="77"/>
+      <c r="AR11" s="30"/>
       <c r="AS11" s="2"/>
     </row>
     <row r="12" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A12" s="18">
+      <c r="A12" s="16">
         <v>3</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18" t="s">
-        <v>38</v>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="F12" s="8">
         <v>43906</v>
@@ -1774,15 +1896,19 @@
       <c r="G12" s="8">
         <v>43908</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="12"/>
@@ -1794,44 +1920,42 @@
       <c r="W12" s="13"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
-      <c r="Z12" s="15"/>
+      <c r="Z12" s="77"/>
       <c r="AA12" s="13"/>
       <c r="AB12" s="13"/>
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="12"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="77"/>
       <c r="AJ12" s="13"/>
-      <c r="AK12" s="14"/>
+      <c r="AK12" s="77"/>
       <c r="AL12" s="12"/>
       <c r="AM12" s="12"/>
       <c r="AN12" s="13"/>
-      <c r="AO12" s="14"/>
-      <c r="AP12" s="15"/>
-      <c r="AQ12" s="15"/>
-      <c r="AR12" s="31"/>
+      <c r="AO12" s="77"/>
+      <c r="AP12" s="77"/>
+      <c r="AQ12" s="77"/>
+      <c r="AR12" s="30"/>
       <c r="AS12" s="2"/>
     </row>
     <row r="13" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="8">
         <v>43906</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
@@ -1845,36 +1969,36 @@
       <c r="W13" s="13"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
-      <c r="Z13" s="15"/>
+      <c r="Z13" s="77"/>
       <c r="AA13" s="13"/>
       <c r="AB13" s="13"/>
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
       <c r="AE13" s="12"/>
       <c r="AF13" s="12"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="77"/>
       <c r="AJ13" s="13"/>
-      <c r="AK13" s="14"/>
+      <c r="AK13" s="77"/>
       <c r="AL13" s="12"/>
       <c r="AM13" s="12"/>
       <c r="AN13" s="13"/>
-      <c r="AO13" s="14"/>
-      <c r="AP13" s="15"/>
-      <c r="AQ13" s="15"/>
-      <c r="AR13" s="31"/>
+      <c r="AO13" s="77"/>
+      <c r="AP13" s="77"/>
+      <c r="AQ13" s="77"/>
+      <c r="AR13" s="30"/>
       <c r="AS13" s="2"/>
     </row>
     <row r="14" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <v>4</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18" t="s">
-        <v>39</v>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="F14" s="8">
         <v>43908</v>
@@ -1882,62 +2006,78 @@
       <c r="G14" s="8">
         <v>43917</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
+      <c r="N14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
-      <c r="Z14" s="15"/>
+      <c r="Z14" s="77"/>
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
       <c r="AC14" s="13"/>
       <c r="AD14" s="13"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="12"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="77"/>
       <c r="AJ14" s="13"/>
-      <c r="AK14" s="14"/>
+      <c r="AK14" s="77"/>
       <c r="AL14" s="12"/>
       <c r="AM14" s="12"/>
       <c r="AN14" s="13"/>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="15"/>
-      <c r="AR14" s="31"/>
+      <c r="AO14" s="77"/>
+      <c r="AP14" s="77"/>
+      <c r="AQ14" s="77"/>
+      <c r="AR14" s="30"/>
       <c r="AS14" s="2"/>
     </row>
     <row r="15" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
@@ -1951,36 +2091,36 @@
       <c r="W15" s="13"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
-      <c r="Z15" s="15"/>
+      <c r="Z15" s="77"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="13"/>
       <c r="AD15" s="13"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="77"/>
+      <c r="AI15" s="77"/>
       <c r="AJ15" s="13"/>
-      <c r="AK15" s="14"/>
+      <c r="AK15" s="77"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="12"/>
       <c r="AN15" s="13"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="15"/>
-      <c r="AQ15" s="15"/>
-      <c r="AR15" s="31"/>
+      <c r="AO15" s="77"/>
+      <c r="AP15" s="77"/>
+      <c r="AQ15" s="77"/>
+      <c r="AR15" s="30"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
-      <c r="A16" s="18">
+      <c r="A16" s="16">
         <v>5</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19" t="s">
-        <v>36</v>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="50" t="s">
+        <v>29</v>
       </c>
       <c r="F16" s="8">
         <v>43929</v>
@@ -1988,13 +2128,11 @@
       <c r="G16" s="8">
         <v>43937</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
@@ -2008,149 +2146,167 @@
       <c r="W16" s="13"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
-      <c r="Z16" s="15"/>
+      <c r="Z16" s="77"/>
       <c r="AA16" s="13"/>
       <c r="AB16" s="13"/>
       <c r="AC16" s="13"/>
       <c r="AD16" s="13"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="12"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="15"/>
-      <c r="AQ16" s="15"/>
-      <c r="AR16" s="31"/>
-    </row>
-    <row r="17" spans="1:44">
-      <c r="A17" s="18"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="14"/>
-      <c r="AP17" s="15"/>
-      <c r="AQ17" s="15"/>
-      <c r="AR17" s="31"/>
-    </row>
-    <row r="18" spans="1:44" ht="12" customHeight="1">
-      <c r="A18" s="18">
+      <c r="AG16" s="77"/>
+      <c r="AH16" s="77"/>
+      <c r="AI16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR16" s="30"/>
+    </row>
+    <row r="17" spans="1:44" ht="13.8" thickBot="1">
+      <c r="A17" s="52"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="78"/>
+      <c r="AH17" s="78"/>
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="60"/>
+      <c r="AK17" s="78"/>
+      <c r="AL17" s="58"/>
+      <c r="AM17" s="58"/>
+      <c r="AN17" s="60"/>
+      <c r="AO17" s="78"/>
+      <c r="AP17" s="78"/>
+      <c r="AQ17" s="78"/>
+      <c r="AR17" s="30"/>
+    </row>
+    <row r="18" spans="1:44" ht="12" customHeight="1" thickTop="1">
+      <c r="A18" s="54">
         <v>6</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="B18" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="55">
         <v>43911</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="55">
         <v>43913</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="12"/>
-      <c r="AM18" s="12"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="14"/>
-      <c r="AP18" s="15"/>
-      <c r="AQ18" s="15"/>
-      <c r="AR18" s="31"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="S18" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="66"/>
+      <c r="AE18" s="64"/>
+      <c r="AF18" s="64"/>
+      <c r="AG18" s="79"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="79"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="79"/>
+      <c r="AL18" s="64"/>
+      <c r="AM18" s="64"/>
+      <c r="AN18" s="66"/>
+      <c r="AO18" s="79"/>
+      <c r="AP18" s="79"/>
+      <c r="AQ18" s="79"/>
+      <c r="AR18" s="30"/>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" s="18"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="21"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -2164,37 +2320,37 @@
       <c r="W19" s="13"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
-      <c r="Z19" s="15"/>
+      <c r="Z19" s="77"/>
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
       <c r="AC19" s="13"/>
       <c r="AD19" s="13"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="12"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
+      <c r="AG19" s="77"/>
+      <c r="AH19" s="77"/>
+      <c r="AI19" s="77"/>
       <c r="AJ19" s="13"/>
-      <c r="AK19" s="14"/>
+      <c r="AK19" s="77"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="12"/>
       <c r="AN19" s="13"/>
-      <c r="AO19" s="14"/>
-      <c r="AP19" s="15"/>
-      <c r="AQ19" s="15"/>
-      <c r="AR19" s="31"/>
+      <c r="AO19" s="77"/>
+      <c r="AP19" s="77"/>
+      <c r="AQ19" s="77"/>
+      <c r="AR19" s="30"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
-      <c r="A20" s="18">
+      <c r="A20" s="16">
         <v>7</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>42</v>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="F20" s="8">
         <v>43915</v>
@@ -2202,13 +2358,11 @@
       <c r="G20" s="8">
         <v>43917</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
-      <c r="L20" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -2217,90 +2371,162 @@
       <c r="R20" s="12"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
+      <c r="U20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="W20" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
-      <c r="Z20" s="15"/>
+      <c r="Z20" s="77"/>
       <c r="AA20" s="13"/>
       <c r="AB20" s="13"/>
       <c r="AC20" s="13"/>
       <c r="AD20" s="13"/>
       <c r="AE20" s="12"/>
       <c r="AF20" s="12"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="77"/>
+      <c r="AI20" s="77"/>
       <c r="AJ20" s="13"/>
-      <c r="AK20" s="14"/>
+      <c r="AK20" s="77"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
       <c r="AN20" s="13"/>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="15"/>
-      <c r="AQ20" s="15"/>
-      <c r="AR20" s="31"/>
+      <c r="AO20" s="77"/>
+      <c r="AP20" s="77"/>
+      <c r="AQ20" s="77"/>
+      <c r="AR20" s="30"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="18"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="21"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11" t="s">
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="12">
+        <v>14</v>
+      </c>
+      <c r="K21" s="12">
+        <v>15</v>
+      </c>
+      <c r="L21" s="11">
+        <v>16</v>
+      </c>
+      <c r="M21" s="11">
+        <v>17</v>
+      </c>
+      <c r="N21" s="13">
+        <v>18</v>
+      </c>
+      <c r="O21" s="13">
+        <v>19</v>
+      </c>
+      <c r="P21" s="13">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>21</v>
+      </c>
+      <c r="R21" s="12">
+        <v>22</v>
+      </c>
+      <c r="S21" s="13">
+        <v>23</v>
+      </c>
+      <c r="T21" s="13">
+        <v>24</v>
+      </c>
+      <c r="U21" s="13">
+        <v>25</v>
+      </c>
+      <c r="V21" s="13">
+        <v>26</v>
+      </c>
+      <c r="W21" s="13">
+        <v>27</v>
+      </c>
+      <c r="X21" s="12">
+        <v>28</v>
+      </c>
+      <c r="Y21" s="12">
+        <v>29</v>
+      </c>
+      <c r="Z21" s="77">
+        <v>30</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>31</v>
+      </c>
+      <c r="AB21" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="12">
+        <v>4</v>
+      </c>
+      <c r="AF21" s="12">
+        <v>5</v>
+      </c>
+      <c r="AG21" s="77">
+        <v>6</v>
+      </c>
+      <c r="AH21" s="77">
         <v>7</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="12"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="14"/>
-      <c r="AP21" s="15"/>
-      <c r="AQ21" s="15"/>
-      <c r="AR21" s="31"/>
+      <c r="AI21" s="77">
+        <v>8</v>
+      </c>
+      <c r="AJ21" s="13">
+        <v>9</v>
+      </c>
+      <c r="AK21" s="77">
+        <v>10</v>
+      </c>
+      <c r="AL21" s="12">
+        <v>11</v>
+      </c>
+      <c r="AM21" s="12">
+        <v>12</v>
+      </c>
+      <c r="AN21" s="13">
+        <v>13</v>
+      </c>
+      <c r="AO21" s="77">
+        <v>14</v>
+      </c>
+      <c r="AP21" s="77">
+        <v>15</v>
+      </c>
+      <c r="AQ21" s="77">
+        <v>16</v>
+      </c>
+      <c r="AR21" s="30"/>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="18">
+      <c r="A22" s="16">
         <v>8</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>52</v>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="F22" s="8">
         <v>43919</v>
@@ -2308,8 +2534,8 @@
       <c r="G22" s="8">
         <v>43921</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="11"/>
@@ -2325,37 +2551,43 @@
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
       <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="13"/>
+      <c r="Y22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA22" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="AB22" s="13"/>
       <c r="AC22" s="13"/>
       <c r="AD22" s="13"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="12"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="15"/>
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="77"/>
+      <c r="AI22" s="77"/>
       <c r="AJ22" s="13"/>
-      <c r="AK22" s="14"/>
+      <c r="AK22" s="77"/>
       <c r="AL22" s="12"/>
       <c r="AM22" s="12"/>
       <c r="AN22" s="13"/>
-      <c r="AO22" s="14"/>
-      <c r="AP22" s="15"/>
-      <c r="AQ22" s="15"/>
-      <c r="AR22" s="31"/>
+      <c r="AO22" s="77"/>
+      <c r="AP22" s="77"/>
+      <c r="AQ22" s="77"/>
+      <c r="AR22" s="30"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="18"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="21"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
@@ -2372,37 +2604,37 @@
       <c r="W23" s="13"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
-      <c r="Z23" s="15"/>
+      <c r="Z23" s="77"/>
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
       <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="12"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="15"/>
-      <c r="AI23" s="15"/>
+      <c r="AG23" s="77"/>
+      <c r="AH23" s="77"/>
+      <c r="AI23" s="77"/>
       <c r="AJ23" s="13"/>
-      <c r="AK23" s="14"/>
+      <c r="AK23" s="77"/>
       <c r="AL23" s="12"/>
       <c r="AM23" s="12"/>
       <c r="AN23" s="13"/>
-      <c r="AO23" s="14"/>
-      <c r="AP23" s="15"/>
-      <c r="AQ23" s="15"/>
-      <c r="AR23" s="31"/>
+      <c r="AO23" s="77"/>
+      <c r="AP23" s="77"/>
+      <c r="AQ23" s="77"/>
+      <c r="AR23" s="30"/>
     </row>
     <row r="24" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A24" s="18">
+      <c r="A24" s="16">
         <v>9</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>56</v>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="F24" s="8">
         <v>43922</v>
@@ -2410,13 +2642,11 @@
       <c r="G24" s="8">
         <v>43923</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
@@ -2430,41 +2660,43 @@
       <c r="W24" s="13"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
-      <c r="Z24" s="15"/>
+      <c r="Z24" s="77"/>
       <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
+      <c r="AB24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC24" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="AD24" s="13"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="12"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="15"/>
+      <c r="AG24" s="77"/>
+      <c r="AH24" s="77"/>
+      <c r="AI24" s="77"/>
       <c r="AJ24" s="13"/>
-      <c r="AK24" s="14"/>
+      <c r="AK24" s="77"/>
       <c r="AL24" s="12"/>
       <c r="AM24" s="12"/>
       <c r="AN24" s="13"/>
-      <c r="AO24" s="14"/>
-      <c r="AP24" s="15"/>
-      <c r="AQ24" s="15"/>
-      <c r="AR24" s="31"/>
+      <c r="AO24" s="77"/>
+      <c r="AP24" s="77"/>
+      <c r="AQ24" s="77"/>
+      <c r="AR24" s="30"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="18"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="21"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
@@ -2478,37 +2710,37 @@
       <c r="W25" s="13"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
-      <c r="Z25" s="15"/>
+      <c r="Z25" s="77"/>
       <c r="AA25" s="13"/>
       <c r="AB25" s="13"/>
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="12"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
+      <c r="AG25" s="77"/>
+      <c r="AH25" s="77"/>
+      <c r="AI25" s="77"/>
       <c r="AJ25" s="13"/>
-      <c r="AK25" s="14"/>
+      <c r="AK25" s="77"/>
       <c r="AL25" s="12"/>
       <c r="AM25" s="12"/>
       <c r="AN25" s="13"/>
-      <c r="AO25" s="14"/>
-      <c r="AP25" s="15"/>
-      <c r="AQ25" s="15"/>
-      <c r="AR25" s="31"/>
+      <c r="AO25" s="77"/>
+      <c r="AP25" s="77"/>
+      <c r="AQ25" s="77"/>
+      <c r="AR25" s="30"/>
     </row>
     <row r="26" spans="1:44" ht="12" customHeight="1">
-      <c r="A26" s="18">
+      <c r="A26" s="16">
         <v>10</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>57</v>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="F26" s="8">
         <v>43924</v>
@@ -2516,13 +2748,11 @@
       <c r="G26" s="8">
         <v>43928</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
@@ -2536,142 +2766,156 @@
       <c r="W26" s="13"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
-      <c r="Z26" s="15"/>
+      <c r="Z26" s="77"/>
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
       <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
+      <c r="AD26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI26" s="77"/>
       <c r="AJ26" s="13"/>
-      <c r="AK26" s="14"/>
+      <c r="AK26" s="77"/>
       <c r="AL26" s="12"/>
       <c r="AM26" s="12"/>
       <c r="AN26" s="13"/>
-      <c r="AO26" s="14"/>
-      <c r="AP26" s="15"/>
-      <c r="AQ26" s="15"/>
-      <c r="AR26" s="31"/>
-    </row>
-    <row r="27" spans="1:44">
-      <c r="A27" s="18"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="11"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="15"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="14"/>
-      <c r="AL27" s="12"/>
-      <c r="AM27" s="12"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="14"/>
-      <c r="AP27" s="15"/>
-      <c r="AQ27" s="15"/>
-      <c r="AR27" s="31"/>
-    </row>
-    <row r="28" spans="1:44">
-      <c r="A28" s="18">
+      <c r="AO26" s="77"/>
+      <c r="AP26" s="77"/>
+      <c r="AQ26" s="77"/>
+      <c r="AR26" s="30"/>
+    </row>
+    <row r="27" spans="1:44" ht="13.8" thickBot="1">
+      <c r="A27" s="67"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="74"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="76"/>
+      <c r="AB27" s="76"/>
+      <c r="AC27" s="76"/>
+      <c r="AD27" s="76"/>
+      <c r="AE27" s="74"/>
+      <c r="AF27" s="74"/>
+      <c r="AG27" s="80"/>
+      <c r="AH27" s="80"/>
+      <c r="AI27" s="80"/>
+      <c r="AJ27" s="76"/>
+      <c r="AK27" s="80"/>
+      <c r="AL27" s="74"/>
+      <c r="AM27" s="74"/>
+      <c r="AN27" s="76"/>
+      <c r="AO27" s="80"/>
+      <c r="AP27" s="80"/>
+      <c r="AQ27" s="80"/>
+      <c r="AR27" s="30"/>
+    </row>
+    <row r="28" spans="1:44" ht="13.8" thickTop="1">
+      <c r="A28" s="54">
         <v>11</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="62"/>
+      <c r="D28" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="8">
+      <c r="E28" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="55">
         <v>43912</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="55">
         <v>43914</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="15"/>
-      <c r="AI28" s="15"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="14"/>
-      <c r="AL28" s="12"/>
-      <c r="AM28" s="12"/>
-      <c r="AN28" s="13"/>
-      <c r="AO28" s="14"/>
-      <c r="AP28" s="15"/>
-      <c r="AQ28" s="15"/>
-      <c r="AR28" s="31"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="S28" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="66"/>
+      <c r="AB28" s="66"/>
+      <c r="AC28" s="66"/>
+      <c r="AD28" s="66"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="79"/>
+      <c r="AL28" s="64"/>
+      <c r="AM28" s="64"/>
+      <c r="AN28" s="66"/>
+      <c r="AO28" s="79"/>
+      <c r="AP28" s="79"/>
+      <c r="AQ28" s="79"/>
+      <c r="AR28" s="30"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" s="18"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="21"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
@@ -2688,37 +2932,37 @@
       <c r="W29" s="13"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
-      <c r="Z29" s="15"/>
+      <c r="Z29" s="77"/>
       <c r="AA29" s="13"/>
       <c r="AB29" s="13"/>
       <c r="AC29" s="13"/>
       <c r="AD29" s="13"/>
       <c r="AE29" s="12"/>
       <c r="AF29" s="12"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="15"/>
-      <c r="AI29" s="15"/>
+      <c r="AG29" s="77"/>
+      <c r="AH29" s="77"/>
+      <c r="AI29" s="77"/>
       <c r="AJ29" s="13"/>
-      <c r="AK29" s="14"/>
+      <c r="AK29" s="77"/>
       <c r="AL29" s="12"/>
       <c r="AM29" s="12"/>
       <c r="AN29" s="13"/>
-      <c r="AO29" s="14"/>
-      <c r="AP29" s="15"/>
-      <c r="AQ29" s="15"/>
-      <c r="AR29" s="31"/>
+      <c r="AO29" s="77"/>
+      <c r="AP29" s="77"/>
+      <c r="AQ29" s="77"/>
+      <c r="AR29" s="30"/>
     </row>
     <row r="30" spans="1:44">
-      <c r="A30" s="18">
+      <c r="A30" s="16">
         <v>12</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>43</v>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="F30" s="8">
         <v>43915</v>
@@ -2726,13 +2970,11 @@
       <c r="G30" s="8">
         <v>43917</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -2741,9 +2983,15 @@
       <c r="R30" s="12"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
+      <c r="U30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="13"/>
@@ -2764,23 +3012,21 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="31"/>
+      <c r="AR30" s="30"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" s="18"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="21"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
@@ -2812,19 +3058,19 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="31"/>
+      <c r="AR31" s="30"/>
     </row>
     <row r="32" spans="1:44" ht="12" customHeight="1">
-      <c r="A32" s="18">
-        <v>13</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>44</v>
+      <c r="A32" s="16">
+        <v>13</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="F32" s="8">
         <v>43918</v>
@@ -2832,17 +3078,13 @@
       <c r="G32" s="8">
         <v>43923</v>
       </c>
-      <c r="H32" s="51"/>
-      <c r="I32" s="16"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N32" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="M32" s="11"/>
+      <c r="N32" s="13"/>
       <c r="O32" s="13"/>
       <c r="P32" s="13"/>
       <c r="Q32" s="12"/>
@@ -2852,12 +3094,24 @@
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
+      <c r="X32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC32" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="AD32" s="13"/>
       <c r="AE32" s="12"/>
       <c r="AF32" s="12"/>
@@ -2872,89 +3126,65 @@
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
       <c r="AQ32" s="13"/>
-      <c r="AR32" s="31"/>
+      <c r="AR32" s="30"/>
     </row>
     <row r="33" spans="1:44">
-      <c r="A33" s="18"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="17"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="19"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="O33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="P33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q33" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R33" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
-      <c r="X33" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y33" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
       <c r="Z33" s="13"/>
-      <c r="AA33" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="AA33" s="13"/>
       <c r="AB33" s="13"/>
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
-      <c r="AE33" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF33" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
       <c r="AG33" s="13"/>
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="13"/>
       <c r="AK33" s="13"/>
-      <c r="AL33" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM33" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
       <c r="AN33" s="13"/>
       <c r="AO33" s="13"/>
       <c r="AP33" s="13"/>
       <c r="AQ33" s="13"/>
-      <c r="AR33" s="31"/>
+      <c r="AR33" s="30"/>
     </row>
     <row r="34" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A34" s="18">
+      <c r="A34" s="16">
         <v>14</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>45</v>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="F34" s="8">
         <v>43924</v>
@@ -2962,8 +3192,8 @@
       <c r="G34" s="8">
         <v>43925</v>
       </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="16"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="18"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="11"/>
@@ -2974,28 +3204,22 @@
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="13"/>
-      <c r="T34" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="U34" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="V34" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
       <c r="W34" s="13"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
       <c r="AB34" s="13"/>
-      <c r="AC34" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="AC34" s="13"/>
       <c r="AD34" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE34" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="AE34" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="AF34" s="12"/>
       <c r="AG34" s="13"/>
       <c r="AH34" s="13"/>
@@ -3008,18 +3232,18 @@
       <c r="AO34" s="13"/>
       <c r="AP34" s="13"/>
       <c r="AQ34" s="13"/>
-      <c r="AR34" s="31"/>
+      <c r="AR34" s="30"/>
     </row>
     <row r="35" spans="1:44">
-      <c r="A35" s="18"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="17"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="19"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11"/>
@@ -3029,32 +3253,18 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
-      <c r="S35" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="T35" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="U35" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="V35" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
       <c r="W35" s="13"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
       <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
-      <c r="AB35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC35" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD35" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
       <c r="AE35" s="12"/>
       <c r="AF35" s="12"/>
       <c r="AG35" s="13"/>
@@ -3068,19 +3278,19 @@
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
       <c r="AQ35" s="13"/>
-      <c r="AR35" s="32"/>
+      <c r="AR35" s="31"/>
     </row>
     <row r="36" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A36" s="18">
+      <c r="A36" s="16">
         <v>15</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>46</v>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="F36" s="8">
         <v>43926</v>
@@ -3088,13 +3298,11 @@
       <c r="G36" s="8">
         <v>43928</v>
       </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
-      <c r="L36" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
@@ -3108,189 +3316,261 @@
       <c r="W36" s="13"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
-      <c r="Z36" s="15"/>
+      <c r="Z36" s="77"/>
       <c r="AA36" s="13"/>
       <c r="AB36" s="13"/>
       <c r="AC36" s="13"/>
       <c r="AD36" s="13"/>
       <c r="AE36" s="12"/>
-      <c r="AF36" s="12"/>
-      <c r="AG36" s="14"/>
-      <c r="AH36" s="15"/>
-      <c r="AI36" s="15"/>
+      <c r="AF36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI36" s="77"/>
       <c r="AJ36" s="13"/>
-      <c r="AK36" s="14"/>
+      <c r="AK36" s="77"/>
       <c r="AL36" s="12"/>
       <c r="AM36" s="12"/>
       <c r="AN36" s="13"/>
-      <c r="AO36" s="14"/>
-      <c r="AP36" s="15"/>
-      <c r="AQ36" s="15"/>
-    </row>
-    <row r="37" spans="1:44" ht="12" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="M37" s="11"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="15"/>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="12"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="15"/>
-      <c r="AI37" s="15"/>
-      <c r="AJ37" s="13"/>
-      <c r="AK37" s="14"/>
-      <c r="AL37" s="12"/>
-      <c r="AM37" s="12"/>
-      <c r="AN37" s="13"/>
-      <c r="AO37" s="14"/>
-      <c r="AP37" s="15"/>
-      <c r="AQ37" s="15"/>
-    </row>
-    <row r="38" spans="1:44" ht="12" customHeight="1">
-      <c r="A38" s="18">
+      <c r="AO36" s="77"/>
+      <c r="AP36" s="77"/>
+      <c r="AQ36" s="77"/>
+    </row>
+    <row r="37" spans="1:44" ht="12" customHeight="1" thickBot="1">
+      <c r="A37" s="67"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="76"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="76"/>
+      <c r="W37" s="76"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="80"/>
+      <c r="AA37" s="76"/>
+      <c r="AB37" s="76"/>
+      <c r="AC37" s="76"/>
+      <c r="AD37" s="76"/>
+      <c r="AE37" s="74"/>
+      <c r="AF37" s="74"/>
+      <c r="AG37" s="80"/>
+      <c r="AH37" s="80"/>
+      <c r="AI37" s="80"/>
+      <c r="AJ37" s="76"/>
+      <c r="AK37" s="80"/>
+      <c r="AL37" s="74"/>
+      <c r="AM37" s="74"/>
+      <c r="AN37" s="76"/>
+      <c r="AO37" s="80"/>
+      <c r="AP37" s="80"/>
+      <c r="AQ37" s="80"/>
+    </row>
+    <row r="38" spans="1:44" ht="12" customHeight="1" thickTop="1">
+      <c r="A38" s="54">
         <v>16</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="8">
+      <c r="B38" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="62"/>
+      <c r="D38" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="55">
         <v>43912</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="55">
         <v>43913</v>
       </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="12"/>
-      <c r="AF38" s="12"/>
-      <c r="AG38" s="14"/>
-      <c r="AH38" s="15"/>
-      <c r="AI38" s="15"/>
-      <c r="AJ38" s="13"/>
-      <c r="AK38" s="14"/>
-      <c r="AL38" s="12"/>
-      <c r="AM38" s="12"/>
-      <c r="AN38" s="13"/>
-      <c r="AO38" s="14"/>
-      <c r="AP38" s="15"/>
-      <c r="AQ38" s="15"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="S38" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="64"/>
+      <c r="Y38" s="64"/>
+      <c r="Z38" s="79"/>
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="66"/>
+      <c r="AD38" s="66"/>
+      <c r="AE38" s="64"/>
+      <c r="AF38" s="64"/>
+      <c r="AG38" s="79"/>
+      <c r="AH38" s="79"/>
+      <c r="AI38" s="79"/>
+      <c r="AJ38" s="66"/>
+      <c r="AK38" s="79"/>
+      <c r="AL38" s="64"/>
+      <c r="AM38" s="64"/>
+      <c r="AN38" s="66"/>
+      <c r="AO38" s="79"/>
+      <c r="AP38" s="79"/>
+      <c r="AQ38" s="79"/>
     </row>
     <row r="39" spans="1:44">
-      <c r="A39" s="18"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="21"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="11" t="s">
+      <c r="H39" s="18"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="12">
+        <v>14</v>
+      </c>
+      <c r="K39" s="12">
+        <v>15</v>
+      </c>
+      <c r="L39" s="11">
+        <v>16</v>
+      </c>
+      <c r="M39" s="11">
+        <v>17</v>
+      </c>
+      <c r="N39" s="13">
+        <v>18</v>
+      </c>
+      <c r="O39" s="13">
+        <v>19</v>
+      </c>
+      <c r="P39" s="13">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>21</v>
+      </c>
+      <c r="R39" s="12">
+        <v>22</v>
+      </c>
+      <c r="S39" s="13">
+        <v>23</v>
+      </c>
+      <c r="T39" s="13">
+        <v>24</v>
+      </c>
+      <c r="U39" s="13">
+        <v>25</v>
+      </c>
+      <c r="V39" s="13">
+        <v>26</v>
+      </c>
+      <c r="W39" s="13">
+        <v>27</v>
+      </c>
+      <c r="X39" s="12">
+        <v>28</v>
+      </c>
+      <c r="Y39" s="12">
+        <v>29</v>
+      </c>
+      <c r="Z39" s="77">
+        <v>30</v>
+      </c>
+      <c r="AA39" s="13">
+        <v>31</v>
+      </c>
+      <c r="AB39" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE39" s="12">
+        <v>4</v>
+      </c>
+      <c r="AF39" s="12">
+        <v>5</v>
+      </c>
+      <c r="AG39" s="77">
+        <v>6</v>
+      </c>
+      <c r="AH39" s="77">
         <v>7</v>
       </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="14"/>
-      <c r="AH39" s="15"/>
-      <c r="AI39" s="15"/>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="14"/>
-      <c r="AL39" s="12"/>
-      <c r="AM39" s="12"/>
-      <c r="AN39" s="13"/>
-      <c r="AO39" s="14"/>
-      <c r="AP39" s="15"/>
-      <c r="AQ39" s="15"/>
+      <c r="AI39" s="77">
+        <v>8</v>
+      </c>
+      <c r="AJ39" s="13">
+        <v>9</v>
+      </c>
+      <c r="AK39" s="77">
+        <v>10</v>
+      </c>
+      <c r="AL39" s="12">
+        <v>11</v>
+      </c>
+      <c r="AM39" s="12">
+        <v>12</v>
+      </c>
+      <c r="AN39" s="13">
+        <v>13</v>
+      </c>
+      <c r="AO39" s="77">
+        <v>14</v>
+      </c>
+      <c r="AP39" s="77">
+        <v>15</v>
+      </c>
+      <c r="AQ39" s="77">
+        <v>16</v>
+      </c>
     </row>
     <row r="40" spans="1:44">
-      <c r="A40" s="18">
+      <c r="A40" s="16">
         <v>17</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>47</v>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="F40" s="8">
         <v>43914</v>
@@ -3298,13 +3578,11 @@
       <c r="G40" s="8">
         <v>43916</v>
       </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
-      <c r="L40" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="L40" s="11"/>
       <c r="M40" s="11"/>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
@@ -3312,46 +3590,50 @@
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
       <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
+      <c r="T40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V40" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="W40" s="13"/>
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
-      <c r="Z40" s="15"/>
+      <c r="Z40" s="77"/>
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
       <c r="AC40" s="13"/>
       <c r="AD40" s="13"/>
       <c r="AE40" s="12"/>
       <c r="AF40" s="12"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="15"/>
-      <c r="AI40" s="15"/>
+      <c r="AG40" s="77"/>
+      <c r="AH40" s="77"/>
+      <c r="AI40" s="77"/>
       <c r="AJ40" s="13"/>
-      <c r="AK40" s="14"/>
+      <c r="AK40" s="77"/>
       <c r="AL40" s="12"/>
       <c r="AM40" s="12"/>
       <c r="AN40" s="13"/>
-      <c r="AO40" s="14"/>
-      <c r="AP40" s="15"/>
-      <c r="AQ40" s="15"/>
+      <c r="AO40" s="77"/>
+      <c r="AP40" s="77"/>
+      <c r="AQ40" s="77"/>
     </row>
     <row r="41" spans="1:44">
-      <c r="A41" s="18"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="21"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="17"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="19"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
-      <c r="L41" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="L41" s="11"/>
       <c r="M41" s="11"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
@@ -3365,36 +3647,36 @@
       <c r="W41" s="13"/>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
-      <c r="Z41" s="15"/>
+      <c r="Z41" s="77"/>
       <c r="AA41" s="13"/>
       <c r="AB41" s="13"/>
       <c r="AC41" s="13"/>
       <c r="AD41" s="13"/>
       <c r="AE41" s="12"/>
       <c r="AF41" s="12"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="15"/>
-      <c r="AI41" s="15"/>
+      <c r="AG41" s="77"/>
+      <c r="AH41" s="77"/>
+      <c r="AI41" s="77"/>
       <c r="AJ41" s="13"/>
-      <c r="AK41" s="14"/>
+      <c r="AK41" s="77"/>
       <c r="AL41" s="12"/>
       <c r="AM41" s="12"/>
       <c r="AN41" s="13"/>
-      <c r="AO41" s="14"/>
-      <c r="AP41" s="15"/>
-      <c r="AQ41" s="15"/>
+      <c r="AO41" s="77"/>
+      <c r="AP41" s="77"/>
+      <c r="AQ41" s="77"/>
     </row>
     <row r="42" spans="1:44">
-      <c r="A42" s="18">
+      <c r="A42" s="16">
         <v>18</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>48</v>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="F42" s="8">
         <v>43917</v>
@@ -3402,13 +3684,11 @@
       <c r="G42" s="8">
         <v>43918</v>
       </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
-      <c r="L42" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="L42" s="11"/>
       <c r="M42" s="11"/>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
@@ -3419,43 +3699,45 @@
       <c r="T42" s="13"/>
       <c r="U42" s="13"/>
       <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="12"/>
+      <c r="W42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="X42" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="Y42" s="12"/>
-      <c r="Z42" s="15"/>
+      <c r="Z42" s="77"/>
       <c r="AA42" s="13"/>
       <c r="AB42" s="13"/>
       <c r="AC42" s="13"/>
       <c r="AD42" s="13"/>
       <c r="AE42" s="12"/>
       <c r="AF42" s="12"/>
-      <c r="AG42" s="14"/>
-      <c r="AH42" s="15"/>
-      <c r="AI42" s="15"/>
+      <c r="AG42" s="77"/>
+      <c r="AH42" s="77"/>
+      <c r="AI42" s="77"/>
       <c r="AJ42" s="13"/>
-      <c r="AK42" s="14"/>
+      <c r="AK42" s="77"/>
       <c r="AL42" s="12"/>
       <c r="AM42" s="12"/>
       <c r="AN42" s="13"/>
-      <c r="AO42" s="14"/>
-      <c r="AP42" s="15"/>
-      <c r="AQ42" s="15"/>
+      <c r="AO42" s="77"/>
+      <c r="AP42" s="77"/>
+      <c r="AQ42" s="77"/>
     </row>
     <row r="43" spans="1:44">
-      <c r="A43" s="18"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="21"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="19"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
-      <c r="L43" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="L43" s="11"/>
       <c r="M43" s="11"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
@@ -3469,36 +3751,36 @@
       <c r="W43" s="13"/>
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
-      <c r="Z43" s="15"/>
+      <c r="Z43" s="77"/>
       <c r="AA43" s="13"/>
       <c r="AB43" s="13"/>
       <c r="AC43" s="13"/>
       <c r="AD43" s="13"/>
       <c r="AE43" s="12"/>
       <c r="AF43" s="12"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="15"/>
-      <c r="AI43" s="15"/>
+      <c r="AG43" s="77"/>
+      <c r="AH43" s="77"/>
+      <c r="AI43" s="77"/>
       <c r="AJ43" s="13"/>
-      <c r="AK43" s="14"/>
+      <c r="AK43" s="77"/>
       <c r="AL43" s="12"/>
       <c r="AM43" s="12"/>
       <c r="AN43" s="13"/>
-      <c r="AO43" s="14"/>
-      <c r="AP43" s="15"/>
-      <c r="AQ43" s="15"/>
+      <c r="AO43" s="77"/>
+      <c r="AP43" s="77"/>
+      <c r="AQ43" s="77"/>
     </row>
     <row r="44" spans="1:44">
-      <c r="A44" s="18">
+      <c r="A44" s="16">
         <v>19</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>49</v>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="F44" s="8">
         <v>43919</v>
@@ -3506,8 +3788,8 @@
       <c r="G44" s="8">
         <v>43920</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="11"/>
@@ -3523,36 +3805,40 @@
       <c r="V44" s="13"/>
       <c r="W44" s="13"/>
       <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="15"/>
+      <c r="Y44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z44" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="AA44" s="13"/>
       <c r="AB44" s="13"/>
       <c r="AC44" s="13"/>
       <c r="AD44" s="13"/>
       <c r="AE44" s="12"/>
       <c r="AF44" s="12"/>
-      <c r="AG44" s="14"/>
-      <c r="AH44" s="15"/>
-      <c r="AI44" s="15"/>
+      <c r="AG44" s="77"/>
+      <c r="AH44" s="77"/>
+      <c r="AI44" s="77"/>
       <c r="AJ44" s="13"/>
-      <c r="AK44" s="14"/>
+      <c r="AK44" s="77"/>
       <c r="AL44" s="12"/>
       <c r="AM44" s="12"/>
       <c r="AN44" s="13"/>
-      <c r="AO44" s="14"/>
-      <c r="AP44" s="15"/>
-      <c r="AQ44" s="15"/>
+      <c r="AO44" s="77"/>
+      <c r="AP44" s="77"/>
+      <c r="AQ44" s="77"/>
     </row>
     <row r="45" spans="1:44">
-      <c r="A45" s="18"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="21"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="17"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="11"/>
@@ -3569,36 +3855,36 @@
       <c r="W45" s="13"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
-      <c r="Z45" s="15"/>
+      <c r="Z45" s="77"/>
       <c r="AA45" s="13"/>
       <c r="AB45" s="13"/>
       <c r="AC45" s="13"/>
       <c r="AD45" s="13"/>
       <c r="AE45" s="12"/>
       <c r="AF45" s="12"/>
-      <c r="AG45" s="14"/>
-      <c r="AH45" s="15"/>
-      <c r="AI45" s="15"/>
+      <c r="AG45" s="77"/>
+      <c r="AH45" s="77"/>
+      <c r="AI45" s="77"/>
       <c r="AJ45" s="13"/>
-      <c r="AK45" s="14"/>
+      <c r="AK45" s="77"/>
       <c r="AL45" s="12"/>
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
-      <c r="AO45" s="14"/>
-      <c r="AP45" s="15"/>
-      <c r="AQ45" s="15"/>
+      <c r="AO45" s="77"/>
+      <c r="AP45" s="77"/>
+      <c r="AQ45" s="77"/>
     </row>
     <row r="46" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A46" s="18">
+      <c r="A46" s="16">
         <v>20</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>50</v>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="F46" s="8">
         <v>43920</v>
@@ -3606,13 +3892,11 @@
       <c r="G46" s="8">
         <v>43921</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
-      <c r="L46" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
@@ -3626,40 +3910,42 @@
       <c r="W46" s="13"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="12"/>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="13"/>
+      <c r="Z46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA46" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="AB46" s="13"/>
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="12"/>
       <c r="AF46" s="12"/>
-      <c r="AG46" s="14"/>
-      <c r="AH46" s="15"/>
-      <c r="AI46" s="15"/>
+      <c r="AG46" s="77"/>
+      <c r="AH46" s="77"/>
+      <c r="AI46" s="77"/>
       <c r="AJ46" s="13"/>
-      <c r="AK46" s="14"/>
+      <c r="AK46" s="77"/>
       <c r="AL46" s="12"/>
       <c r="AM46" s="12"/>
       <c r="AN46" s="13"/>
-      <c r="AO46" s="14"/>
-      <c r="AP46" s="15"/>
-      <c r="AQ46" s="15"/>
+      <c r="AO46" s="77"/>
+      <c r="AP46" s="77"/>
+      <c r="AQ46" s="77"/>
     </row>
     <row r="47" spans="1:44">
-      <c r="A47" s="18"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="21"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="17"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="19"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
-      <c r="L47" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="L47" s="11"/>
       <c r="M47" s="11"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
@@ -3673,36 +3959,36 @@
       <c r="W47" s="13"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
-      <c r="Z47" s="15"/>
+      <c r="Z47" s="77"/>
       <c r="AA47" s="13"/>
       <c r="AB47" s="13"/>
       <c r="AC47" s="13"/>
       <c r="AD47" s="13"/>
       <c r="AE47" s="12"/>
       <c r="AF47" s="12"/>
-      <c r="AG47" s="14"/>
-      <c r="AH47" s="15"/>
-      <c r="AI47" s="15"/>
+      <c r="AG47" s="77"/>
+      <c r="AH47" s="77"/>
+      <c r="AI47" s="77"/>
       <c r="AJ47" s="13"/>
-      <c r="AK47" s="14"/>
+      <c r="AK47" s="77"/>
       <c r="AL47" s="12"/>
       <c r="AM47" s="12"/>
       <c r="AN47" s="13"/>
-      <c r="AO47" s="14"/>
-      <c r="AP47" s="15"/>
-      <c r="AQ47" s="15"/>
+      <c r="AO47" s="77"/>
+      <c r="AP47" s="77"/>
+      <c r="AQ47" s="77"/>
     </row>
     <row r="48" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A48" s="18">
+      <c r="A48" s="16">
         <v>21</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>53</v>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="F48" s="8">
         <v>43922</v>
@@ -3710,13 +3996,11 @@
       <c r="G48" s="8">
         <v>43928</v>
       </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
-      <c r="L48" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="L48" s="11"/>
       <c r="M48" s="11"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
@@ -3732,13 +4016,27 @@
       <c r="Y48" s="12"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-      <c r="AE48" s="12"/>
-      <c r="AF48" s="12"/>
-      <c r="AG48" s="13"/>
-      <c r="AH48" s="13"/>
+      <c r="AB48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE48" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF48" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH48" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="AI48" s="13"/>
       <c r="AJ48" s="13"/>
       <c r="AK48" s="13"/>
@@ -3750,20 +4048,18 @@
       <c r="AQ48" s="13"/>
     </row>
     <row r="49" spans="1:43">
-      <c r="A49" s="18"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="21"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="17"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="19"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
-      <c r="L49" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="L49" s="11"/>
       <c r="M49" s="11"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
@@ -3799,66 +4095,170 @@
     <row r="53" spans="1:43" ht="13.2" customHeight="1"/>
     <row r="54" spans="1:43" ht="13.2" customHeight="1"/>
     <row r="63" spans="1:43">
-      <c r="A63" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="52"/>
-      <c r="S63" s="52"/>
-      <c r="T63" s="52"/>
-      <c r="U63" s="52"/>
-      <c r="V63" s="52"/>
-      <c r="W63" s="52"/>
-      <c r="X63" s="52"/>
-      <c r="Y63" s="52"/>
-      <c r="Z63" s="52"/>
+      <c r="A63" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="14"/>
+      <c r="Z63" s="14"/>
     </row>
     <row r="64" spans="1:43">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="52"/>
-      <c r="S64" s="52"/>
-      <c r="T64" s="52"/>
-      <c r="U64" s="52"/>
-      <c r="V64" s="52"/>
-      <c r="W64" s="52"/>
-      <c r="X64" s="52"/>
-      <c r="Y64" s="52"/>
-      <c r="Z64" s="52"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="14"/>
+      <c r="V64" s="14"/>
+      <c r="W64" s="14"/>
+      <c r="X64" s="14"/>
+      <c r="Y64" s="14"/>
+      <c r="Z64" s="14"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="128">
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B38:C49"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="AB6:AR6"/>
+    <mergeCell ref="AR8:AR35"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="L4:AI4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="J6:AA6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A63:Z64"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
@@ -3883,110 +4283,6 @@
     <mergeCell ref="B18:C27"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:C37"/>
-    <mergeCell ref="AB6:AR6"/>
-    <mergeCell ref="AR8:AR35"/>
-    <mergeCell ref="A1:AI2"/>
-    <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="L4:AI4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="J6:AA6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B38:C49"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/06. 구현 - 조별 프로젝트 공정도.xlsx
+++ b/06. 구현 - 조별 프로젝트 공정도.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="dd"/>
   </numFmts>
@@ -687,203 +687,203 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1264,8 +1264,8 @@
   </sheetPr>
   <dimension ref="A1:AS64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S44" sqref="S44"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1286,170 +1286,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
     </row>
     <row r="2" spans="1:45" ht="28.35" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="38" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="34" t="s">
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
     </row>
     <row r="4" spans="1:45" ht="21.15" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45" t="s">
+      <c r="H4" s="64"/>
+      <c r="I4" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="35" t="s">
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="37"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="57"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1465,17 +1465,17 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="76" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1484,67 +1484,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="27" t="s">
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="28"/>
-      <c r="AR6" s="28"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="48"/>
+      <c r="AR6" s="48"/>
       <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1653,15 +1653,15 @@
       <c r="AS7" s="2"/>
     </row>
     <row r="8" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A8" s="16">
+      <c r="A8" s="33">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="8">
@@ -1670,10 +1670,10 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="30">
         <v>1</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="12"/>
@@ -1694,43 +1694,43 @@
       <c r="W8" s="13"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
-      <c r="Z8" s="77"/>
+      <c r="Z8" s="26"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
       <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
-      <c r="AG8" s="77"/>
-      <c r="AH8" s="77"/>
-      <c r="AI8" s="77"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
       <c r="AJ8" s="13"/>
-      <c r="AK8" s="77"/>
+      <c r="AK8" s="26"/>
       <c r="AL8" s="12"/>
       <c r="AM8" s="12"/>
       <c r="AN8" s="13"/>
-      <c r="AO8" s="77"/>
-      <c r="AP8" s="77"/>
-      <c r="AQ8" s="77"/>
-      <c r="AR8" s="29" t="s">
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="26"/>
+      <c r="AR8" s="49" t="s">
         <v>22</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="8">
         <v>43905</v>
       </c>
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="36"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
         <v>14</v>
@@ -1751,35 +1751,35 @@
       <c r="W9" s="13"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
-      <c r="Z9" s="77"/>
+      <c r="Z9" s="26"/>
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="77"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
       <c r="AJ9" s="13"/>
-      <c r="AK9" s="77"/>
+      <c r="AK9" s="26"/>
       <c r="AL9" s="12"/>
       <c r="AM9" s="12"/>
       <c r="AN9" s="13"/>
-      <c r="AO9" s="77"/>
-      <c r="AP9" s="77"/>
-      <c r="AQ9" s="77"/>
-      <c r="AR9" s="30"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="50"/>
       <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A10" s="16">
+      <c r="A10" s="33">
         <v>2</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="8">
@@ -1788,15 +1788,15 @@
       <c r="G10" s="8">
         <v>43907</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>13</v>
+      <c r="L10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -1810,39 +1810,39 @@
       <c r="W10" s="13"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
-      <c r="Z10" s="77"/>
+      <c r="Z10" s="26"/>
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="12"/>
       <c r="AF10" s="12"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="77"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
       <c r="AJ10" s="13"/>
-      <c r="AK10" s="77"/>
+      <c r="AK10" s="26"/>
       <c r="AL10" s="12"/>
       <c r="AM10" s="12"/>
       <c r="AN10" s="13"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="30"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="50"/>
       <c r="AS10" s="2"/>
     </row>
     <row r="11" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="8">
         <v>43906</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="11"/>
@@ -1859,35 +1859,35 @@
       <c r="W11" s="13"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
-      <c r="Z11" s="77"/>
+      <c r="Z11" s="26"/>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="77"/>
-      <c r="AI11" s="77"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
       <c r="AJ11" s="13"/>
-      <c r="AK11" s="77"/>
+      <c r="AK11" s="26"/>
       <c r="AL11" s="12"/>
       <c r="AM11" s="12"/>
       <c r="AN11" s="13"/>
-      <c r="AO11" s="77"/>
-      <c r="AP11" s="77"/>
-      <c r="AQ11" s="77"/>
-      <c r="AR11" s="30"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="50"/>
       <c r="AS11" s="2"/>
     </row>
     <row r="12" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A12" s="16">
+      <c r="A12" s="33">
         <v>3</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="8">
@@ -1896,8 +1896,8 @@
       <c r="G12" s="8">
         <v>43908</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="11" t="s">
@@ -1920,39 +1920,39 @@
       <c r="W12" s="13"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
-      <c r="Z12" s="77"/>
+      <c r="Z12" s="26"/>
       <c r="AA12" s="13"/>
       <c r="AB12" s="13"/>
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="12"/>
-      <c r="AG12" s="77"/>
-      <c r="AH12" s="77"/>
-      <c r="AI12" s="77"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
       <c r="AJ12" s="13"/>
-      <c r="AK12" s="77"/>
+      <c r="AK12" s="26"/>
       <c r="AL12" s="12"/>
       <c r="AM12" s="12"/>
       <c r="AN12" s="13"/>
-      <c r="AO12" s="77"/>
-      <c r="AP12" s="77"/>
-      <c r="AQ12" s="77"/>
-      <c r="AR12" s="30"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="50"/>
       <c r="AS12" s="2"/>
     </row>
     <row r="13" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="8">
         <v>43906</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="11"/>
@@ -1969,35 +1969,35 @@
       <c r="W13" s="13"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
-      <c r="Z13" s="77"/>
+      <c r="Z13" s="26"/>
       <c r="AA13" s="13"/>
       <c r="AB13" s="13"/>
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
       <c r="AE13" s="12"/>
       <c r="AF13" s="12"/>
-      <c r="AG13" s="77"/>
-      <c r="AH13" s="77"/>
-      <c r="AI13" s="77"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
       <c r="AJ13" s="13"/>
-      <c r="AK13" s="77"/>
+      <c r="AK13" s="26"/>
       <c r="AL13" s="12"/>
       <c r="AM13" s="12"/>
       <c r="AN13" s="13"/>
-      <c r="AO13" s="77"/>
-      <c r="AP13" s="77"/>
-      <c r="AQ13" s="77"/>
-      <c r="AR13" s="30"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="26"/>
+      <c r="AR13" s="50"/>
       <c r="AS13" s="2"/>
     </row>
     <row r="14" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A14" s="16">
+      <c r="A14" s="33">
         <v>4</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="8">
@@ -2006,8 +2006,8 @@
       <c r="G14" s="8">
         <v>43917</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="11"/>
@@ -2044,37 +2044,37 @@
       </c>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
-      <c r="Z14" s="77"/>
+      <c r="Z14" s="26"/>
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
       <c r="AC14" s="13"/>
       <c r="AD14" s="13"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="12"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="77"/>
-      <c r="AI14" s="77"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
       <c r="AJ14" s="13"/>
-      <c r="AK14" s="77"/>
+      <c r="AK14" s="26"/>
       <c r="AL14" s="12"/>
       <c r="AM14" s="12"/>
       <c r="AN14" s="13"/>
-      <c r="AO14" s="77"/>
-      <c r="AP14" s="77"/>
-      <c r="AQ14" s="77"/>
-      <c r="AR14" s="30"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="50"/>
       <c r="AS14" s="2"/>
     </row>
     <row r="15" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11"/>
@@ -2091,35 +2091,35 @@
       <c r="W15" s="13"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
-      <c r="Z15" s="77"/>
+      <c r="Z15" s="26"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="13"/>
       <c r="AD15" s="13"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
-      <c r="AG15" s="77"/>
-      <c r="AH15" s="77"/>
-      <c r="AI15" s="77"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
       <c r="AJ15" s="13"/>
-      <c r="AK15" s="77"/>
+      <c r="AK15" s="26"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="12"/>
       <c r="AN15" s="13"/>
-      <c r="AO15" s="77"/>
-      <c r="AP15" s="77"/>
-      <c r="AQ15" s="77"/>
-      <c r="AR15" s="30"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="50"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
-      <c r="A16" s="16">
+      <c r="A16" s="33">
         <v>5</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="50" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="37" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="8">
@@ -2128,8 +2128,8 @@
       <c r="G16" s="8">
         <v>43937</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
@@ -2146,15 +2146,15 @@
       <c r="W16" s="13"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
-      <c r="Z16" s="77"/>
+      <c r="Z16" s="26"/>
       <c r="AA16" s="13"/>
       <c r="AB16" s="13"/>
       <c r="AC16" s="13"/>
       <c r="AD16" s="13"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="12"/>
-      <c r="AG16" s="77"/>
-      <c r="AH16" s="77"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
       <c r="AI16" s="11" t="s">
         <v>13</v>
       </c>
@@ -2182,128 +2182,128 @@
       <c r="AQ16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AR16" s="30"/>
+      <c r="AR16" s="50"/>
     </row>
     <row r="17" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A17" s="52"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="60"/>
-      <c r="AD17" s="60"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="78"/>
-      <c r="AH17" s="78"/>
-      <c r="AI17" s="78"/>
-      <c r="AJ17" s="60"/>
-      <c r="AK17" s="78"/>
-      <c r="AL17" s="58"/>
-      <c r="AM17" s="58"/>
-      <c r="AN17" s="60"/>
-      <c r="AO17" s="78"/>
-      <c r="AP17" s="78"/>
-      <c r="AQ17" s="78"/>
-      <c r="AR17" s="30"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="27"/>
+      <c r="AR17" s="50"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A18" s="54">
+      <c r="A18" s="32">
         <v>6</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="54" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="15">
         <v>43911</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="15">
         <v>43913</v>
       </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="R18" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="S18" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="64"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="64"/>
-      <c r="AF18" s="64"/>
-      <c r="AG18" s="79"/>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="79"/>
-      <c r="AJ18" s="66"/>
-      <c r="AK18" s="79"/>
-      <c r="AL18" s="64"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="66"/>
-      <c r="AO18" s="79"/>
-      <c r="AP18" s="79"/>
-      <c r="AQ18" s="79"/>
-      <c r="AR18" s="30"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="S18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="21"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="21"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="28"/>
+      <c r="AR18" s="50"/>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" s="16"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="36"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11"/>
@@ -2320,36 +2320,36 @@
       <c r="W19" s="13"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
-      <c r="Z19" s="77"/>
+      <c r="Z19" s="26"/>
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
       <c r="AC19" s="13"/>
       <c r="AD19" s="13"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="12"/>
-      <c r="AG19" s="77"/>
-      <c r="AH19" s="77"/>
-      <c r="AI19" s="77"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
       <c r="AJ19" s="13"/>
-      <c r="AK19" s="77"/>
+      <c r="AK19" s="26"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="12"/>
       <c r="AN19" s="13"/>
-      <c r="AO19" s="77"/>
-      <c r="AP19" s="77"/>
-      <c r="AQ19" s="77"/>
-      <c r="AR19" s="30"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="26"/>
+      <c r="AQ19" s="26"/>
+      <c r="AR19" s="50"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
-      <c r="A20" s="16">
+      <c r="A20" s="33">
         <v>7</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="16" t="s">
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="33" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="8">
@@ -2358,8 +2358,8 @@
       <c r="G20" s="8">
         <v>43917</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="11"/>
@@ -2382,36 +2382,36 @@
       </c>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
-      <c r="Z20" s="77"/>
+      <c r="Z20" s="26"/>
       <c r="AA20" s="13"/>
       <c r="AB20" s="13"/>
       <c r="AC20" s="13"/>
       <c r="AD20" s="13"/>
       <c r="AE20" s="12"/>
       <c r="AF20" s="12"/>
-      <c r="AG20" s="77"/>
-      <c r="AH20" s="77"/>
-      <c r="AI20" s="77"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
       <c r="AJ20" s="13"/>
-      <c r="AK20" s="77"/>
+      <c r="AK20" s="26"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
       <c r="AN20" s="13"/>
-      <c r="AO20" s="77"/>
-      <c r="AP20" s="77"/>
-      <c r="AQ20" s="77"/>
-      <c r="AR20" s="30"/>
+      <c r="AO20" s="26"/>
+      <c r="AP20" s="26"/>
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="50"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="16"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="12">
         <v>14</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="Y21" s="12">
         <v>29</v>
       </c>
-      <c r="Z21" s="77">
+      <c r="Z21" s="26">
         <v>30</v>
       </c>
       <c r="AA21" s="13">
@@ -2481,19 +2481,19 @@
       <c r="AF21" s="12">
         <v>5</v>
       </c>
-      <c r="AG21" s="77">
+      <c r="AG21" s="26">
         <v>6</v>
       </c>
-      <c r="AH21" s="77">
+      <c r="AH21" s="26">
         <v>7</v>
       </c>
-      <c r="AI21" s="77">
+      <c r="AI21" s="26">
         <v>8</v>
       </c>
       <c r="AJ21" s="13">
         <v>9</v>
       </c>
-      <c r="AK21" s="77">
+      <c r="AK21" s="26">
         <v>10</v>
       </c>
       <c r="AL21" s="12">
@@ -2505,27 +2505,27 @@
       <c r="AN21" s="13">
         <v>13</v>
       </c>
-      <c r="AO21" s="77">
+      <c r="AO21" s="26">
         <v>14</v>
       </c>
-      <c r="AP21" s="77">
+      <c r="AP21" s="26">
         <v>15</v>
       </c>
-      <c r="AQ21" s="77">
+      <c r="AQ21" s="26">
         <v>16</v>
       </c>
-      <c r="AR21" s="30"/>
+      <c r="AR21" s="50"/>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="16">
+      <c r="A22" s="33">
         <v>8</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="16" t="s">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="33" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="8">
@@ -2534,8 +2534,8 @@
       <c r="G22" s="8">
         <v>43921</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="11"/>
@@ -2565,29 +2565,29 @@
       <c r="AD22" s="13"/>
       <c r="AE22" s="12"/>
       <c r="AF22" s="12"/>
-      <c r="AG22" s="77"/>
-      <c r="AH22" s="77"/>
-      <c r="AI22" s="77"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
       <c r="AJ22" s="13"/>
-      <c r="AK22" s="77"/>
+      <c r="AK22" s="26"/>
       <c r="AL22" s="12"/>
       <c r="AM22" s="12"/>
       <c r="AN22" s="13"/>
-      <c r="AO22" s="77"/>
-      <c r="AP22" s="77"/>
-      <c r="AQ22" s="77"/>
-      <c r="AR22" s="30"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="50"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="16"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
@@ -2604,36 +2604,36 @@
       <c r="W23" s="13"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
-      <c r="Z23" s="77"/>
+      <c r="Z23" s="26"/>
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
       <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="12"/>
-      <c r="AG23" s="77"/>
-      <c r="AH23" s="77"/>
-      <c r="AI23" s="77"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
       <c r="AJ23" s="13"/>
-      <c r="AK23" s="77"/>
+      <c r="AK23" s="26"/>
       <c r="AL23" s="12"/>
       <c r="AM23" s="12"/>
       <c r="AN23" s="13"/>
-      <c r="AO23" s="77"/>
-      <c r="AP23" s="77"/>
-      <c r="AQ23" s="77"/>
-      <c r="AR23" s="30"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="50"/>
     </row>
     <row r="24" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A24" s="16">
+      <c r="A24" s="33">
         <v>9</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="16" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="33" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="8">
@@ -2642,8 +2642,8 @@
       <c r="G24" s="8">
         <v>43923</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="11"/>
@@ -2660,7 +2660,7 @@
       <c r="W24" s="13"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
-      <c r="Z24" s="77"/>
+      <c r="Z24" s="26"/>
       <c r="AA24" s="13"/>
       <c r="AB24" s="11" t="s">
         <v>13</v>
@@ -2671,29 +2671,29 @@
       <c r="AD24" s="13"/>
       <c r="AE24" s="12"/>
       <c r="AF24" s="12"/>
-      <c r="AG24" s="77"/>
-      <c r="AH24" s="77"/>
-      <c r="AI24" s="77"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
       <c r="AJ24" s="13"/>
-      <c r="AK24" s="77"/>
+      <c r="AK24" s="26"/>
       <c r="AL24" s="12"/>
       <c r="AM24" s="12"/>
       <c r="AN24" s="13"/>
-      <c r="AO24" s="77"/>
-      <c r="AP24" s="77"/>
-      <c r="AQ24" s="77"/>
-      <c r="AR24" s="30"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="50"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="16"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11"/>
@@ -2710,36 +2710,36 @@
       <c r="W25" s="13"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
-      <c r="Z25" s="77"/>
+      <c r="Z25" s="26"/>
       <c r="AA25" s="13"/>
       <c r="AB25" s="13"/>
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="12"/>
-      <c r="AG25" s="77"/>
-      <c r="AH25" s="77"/>
-      <c r="AI25" s="77"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
       <c r="AJ25" s="13"/>
-      <c r="AK25" s="77"/>
+      <c r="AK25" s="26"/>
       <c r="AL25" s="12"/>
       <c r="AM25" s="12"/>
       <c r="AN25" s="13"/>
-      <c r="AO25" s="77"/>
-      <c r="AP25" s="77"/>
-      <c r="AQ25" s="77"/>
-      <c r="AR25" s="30"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
+      <c r="AR25" s="50"/>
     </row>
     <row r="26" spans="1:44" ht="12" customHeight="1">
-      <c r="A26" s="16">
+      <c r="A26" s="33">
         <v>10</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="16" t="s">
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="33" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="8">
@@ -2748,8 +2748,8 @@
       <c r="G26" s="8">
         <v>43928</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="11"/>
@@ -2766,7 +2766,7 @@
       <c r="W26" s="13"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
-      <c r="Z26" s="77"/>
+      <c r="Z26" s="26"/>
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
       <c r="AC26" s="13"/>
@@ -2785,137 +2785,137 @@
       <c r="AH26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AI26" s="77"/>
+      <c r="AI26" s="26"/>
       <c r="AJ26" s="13"/>
-      <c r="AK26" s="77"/>
+      <c r="AK26" s="26"/>
       <c r="AL26" s="12"/>
       <c r="AM26" s="12"/>
       <c r="AN26" s="13"/>
-      <c r="AO26" s="77"/>
-      <c r="AP26" s="77"/>
-      <c r="AQ26" s="77"/>
-      <c r="AR26" s="30"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="50"/>
     </row>
     <row r="27" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="76"/>
-      <c r="V27" s="76"/>
-      <c r="W27" s="76"/>
-      <c r="X27" s="74"/>
-      <c r="Y27" s="74"/>
-      <c r="Z27" s="80"/>
-      <c r="AA27" s="76"/>
-      <c r="AB27" s="76"/>
-      <c r="AC27" s="76"/>
-      <c r="AD27" s="76"/>
-      <c r="AE27" s="74"/>
-      <c r="AF27" s="74"/>
-      <c r="AG27" s="80"/>
-      <c r="AH27" s="80"/>
-      <c r="AI27" s="80"/>
-      <c r="AJ27" s="76"/>
-      <c r="AK27" s="80"/>
-      <c r="AL27" s="74"/>
-      <c r="AM27" s="74"/>
-      <c r="AN27" s="76"/>
-      <c r="AO27" s="80"/>
-      <c r="AP27" s="80"/>
-      <c r="AQ27" s="80"/>
-      <c r="AR27" s="30"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="25"/>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="23"/>
+      <c r="AM27" s="23"/>
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="29"/>
+      <c r="AP27" s="29"/>
+      <c r="AQ27" s="29"/>
+      <c r="AR27" s="50"/>
     </row>
     <row r="28" spans="1:44" ht="13.8" thickTop="1">
-      <c r="A28" s="54">
+      <c r="A28" s="32">
         <v>11</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="54" t="s">
+      <c r="C28" s="42"/>
+      <c r="D28" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="55">
+      <c r="F28" s="15">
         <v>43912</v>
       </c>
-      <c r="G28" s="55">
+      <c r="G28" s="15">
         <v>43914</v>
       </c>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="S28" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="T28" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="66"/>
-      <c r="AB28" s="66"/>
-      <c r="AC28" s="66"/>
-      <c r="AD28" s="66"/>
-      <c r="AE28" s="64"/>
-      <c r="AF28" s="64"/>
-      <c r="AG28" s="79"/>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="66"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="64"/>
-      <c r="AM28" s="64"/>
-      <c r="AN28" s="66"/>
-      <c r="AO28" s="79"/>
-      <c r="AP28" s="79"/>
-      <c r="AQ28" s="79"/>
-      <c r="AR28" s="30"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="S28" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="21"/>
+      <c r="AK28" s="28"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="28"/>
+      <c r="AP28" s="28"/>
+      <c r="AQ28" s="28"/>
+      <c r="AR28" s="50"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" s="16"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
@@ -2932,36 +2932,36 @@
       <c r="W29" s="13"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
-      <c r="Z29" s="77"/>
+      <c r="Z29" s="26"/>
       <c r="AA29" s="13"/>
       <c r="AB29" s="13"/>
       <c r="AC29" s="13"/>
       <c r="AD29" s="13"/>
       <c r="AE29" s="12"/>
       <c r="AF29" s="12"/>
-      <c r="AG29" s="77"/>
-      <c r="AH29" s="77"/>
-      <c r="AI29" s="77"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
       <c r="AJ29" s="13"/>
-      <c r="AK29" s="77"/>
+      <c r="AK29" s="26"/>
       <c r="AL29" s="12"/>
       <c r="AM29" s="12"/>
       <c r="AN29" s="13"/>
-      <c r="AO29" s="77"/>
-      <c r="AP29" s="77"/>
-      <c r="AQ29" s="77"/>
-      <c r="AR29" s="30"/>
+      <c r="AO29" s="26"/>
+      <c r="AP29" s="26"/>
+      <c r="AQ29" s="26"/>
+      <c r="AR29" s="50"/>
     </row>
     <row r="30" spans="1:44">
-      <c r="A30" s="16">
+      <c r="A30" s="33">
         <v>12</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="16" t="s">
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="33" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="8">
@@ -2970,8 +2970,8 @@
       <c r="G30" s="8">
         <v>43917</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="11"/>
@@ -3012,18 +3012,18 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="30"/>
+      <c r="AR30" s="50"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" s="16"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="36"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
@@ -3058,18 +3058,18 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="30"/>
+      <c r="AR31" s="50"/>
     </row>
     <row r="32" spans="1:44" ht="12" customHeight="1">
-      <c r="A32" s="16">
-        <v>13</v>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="16" t="s">
+      <c r="A32" s="33">
+        <v>13</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="33" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="8">
@@ -3078,8 +3078,8 @@
       <c r="G32" s="8">
         <v>43923</v>
       </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="18"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="30"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
@@ -3126,18 +3126,18 @@
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
       <c r="AQ32" s="13"/>
-      <c r="AR32" s="30"/>
+      <c r="AR32" s="50"/>
     </row>
     <row r="33" spans="1:44">
-      <c r="A33" s="16"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="19"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="11"/>
@@ -3172,18 +3172,18 @@
       <c r="AO33" s="13"/>
       <c r="AP33" s="13"/>
       <c r="AQ33" s="13"/>
-      <c r="AR33" s="30"/>
+      <c r="AR33" s="50"/>
     </row>
     <row r="34" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A34" s="16">
+      <c r="A34" s="33">
         <v>14</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="16" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="33" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="8">
@@ -3192,8 +3192,8 @@
       <c r="G34" s="8">
         <v>43925</v>
       </c>
-      <c r="H34" s="26"/>
-      <c r="I34" s="18"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="30"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="11"/>
@@ -3232,18 +3232,18 @@
       <c r="AO34" s="13"/>
       <c r="AP34" s="13"/>
       <c r="AQ34" s="13"/>
-      <c r="AR34" s="30"/>
+      <c r="AR34" s="50"/>
     </row>
     <row r="35" spans="1:44">
-      <c r="A35" s="16"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="19"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="36"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11"/>
@@ -3278,18 +3278,18 @@
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
       <c r="AQ35" s="13"/>
-      <c r="AR35" s="31"/>
+      <c r="AR35" s="51"/>
     </row>
     <row r="36" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A36" s="16">
+      <c r="A36" s="33">
         <v>15</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="16" t="s">
+      <c r="B36" s="43"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="33" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="8">
@@ -3298,8 +3298,8 @@
       <c r="G36" s="8">
         <v>43928</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="11"/>
@@ -3316,7 +3316,7 @@
       <c r="W36" s="13"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
-      <c r="Z36" s="77"/>
+      <c r="Z36" s="26"/>
       <c r="AA36" s="13"/>
       <c r="AB36" s="13"/>
       <c r="AC36" s="13"/>
@@ -3331,132 +3331,132 @@
       <c r="AH36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AI36" s="77"/>
+      <c r="AI36" s="26"/>
       <c r="AJ36" s="13"/>
-      <c r="AK36" s="77"/>
+      <c r="AK36" s="26"/>
       <c r="AL36" s="12"/>
       <c r="AM36" s="12"/>
       <c r="AN36" s="13"/>
-      <c r="AO36" s="77"/>
-      <c r="AP36" s="77"/>
-      <c r="AQ36" s="77"/>
+      <c r="AO36" s="26"/>
+      <c r="AP36" s="26"/>
+      <c r="AQ36" s="26"/>
     </row>
     <row r="37" spans="1:44" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="67"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="76"/>
-      <c r="T37" s="76"/>
-      <c r="U37" s="76"/>
-      <c r="V37" s="76"/>
-      <c r="W37" s="76"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="74"/>
-      <c r="Z37" s="80"/>
-      <c r="AA37" s="76"/>
-      <c r="AB37" s="76"/>
-      <c r="AC37" s="76"/>
-      <c r="AD37" s="76"/>
-      <c r="AE37" s="74"/>
-      <c r="AF37" s="74"/>
-      <c r="AG37" s="80"/>
-      <c r="AH37" s="80"/>
-      <c r="AI37" s="80"/>
-      <c r="AJ37" s="76"/>
-      <c r="AK37" s="80"/>
-      <c r="AL37" s="74"/>
-      <c r="AM37" s="74"/>
-      <c r="AN37" s="76"/>
-      <c r="AO37" s="80"/>
-      <c r="AP37" s="80"/>
-      <c r="AQ37" s="80"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="29"/>
+      <c r="AI37" s="29"/>
+      <c r="AJ37" s="25"/>
+      <c r="AK37" s="29"/>
+      <c r="AL37" s="23"/>
+      <c r="AM37" s="23"/>
+      <c r="AN37" s="25"/>
+      <c r="AO37" s="29"/>
+      <c r="AP37" s="29"/>
+      <c r="AQ37" s="29"/>
     </row>
     <row r="38" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A38" s="54">
+      <c r="A38" s="32">
         <v>16</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="54" t="s">
+      <c r="C38" s="42"/>
+      <c r="D38" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="55">
+      <c r="F38" s="15">
         <v>43912</v>
       </c>
-      <c r="G38" s="55">
+      <c r="G38" s="15">
         <v>43913</v>
       </c>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="S38" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="T38" s="66"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="66"/>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="64"/>
-      <c r="Z38" s="79"/>
-      <c r="AA38" s="66"/>
-      <c r="AB38" s="66"/>
-      <c r="AC38" s="66"/>
-      <c r="AD38" s="66"/>
-      <c r="AE38" s="64"/>
-      <c r="AF38" s="64"/>
-      <c r="AG38" s="79"/>
-      <c r="AH38" s="79"/>
-      <c r="AI38" s="79"/>
-      <c r="AJ38" s="66"/>
-      <c r="AK38" s="79"/>
-      <c r="AL38" s="64"/>
-      <c r="AM38" s="64"/>
-      <c r="AN38" s="66"/>
-      <c r="AO38" s="79"/>
-      <c r="AP38" s="79"/>
-      <c r="AQ38" s="79"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="S38" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="21"/>
+      <c r="AD38" s="21"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="28"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="28"/>
+      <c r="AJ38" s="21"/>
+      <c r="AK38" s="28"/>
+      <c r="AL38" s="19"/>
+      <c r="AM38" s="19"/>
+      <c r="AN38" s="21"/>
+      <c r="AO38" s="28"/>
+      <c r="AP38" s="28"/>
+      <c r="AQ38" s="28"/>
     </row>
     <row r="39" spans="1:44">
-      <c r="A39" s="16"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="19"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="36"/>
       <c r="J39" s="12">
         <v>14</v>
       </c>
@@ -3505,7 +3505,7 @@
       <c r="Y39" s="12">
         <v>29</v>
       </c>
-      <c r="Z39" s="77">
+      <c r="Z39" s="26">
         <v>30</v>
       </c>
       <c r="AA39" s="13">
@@ -3526,19 +3526,19 @@
       <c r="AF39" s="12">
         <v>5</v>
       </c>
-      <c r="AG39" s="77">
+      <c r="AG39" s="26">
         <v>6</v>
       </c>
-      <c r="AH39" s="77">
+      <c r="AH39" s="26">
         <v>7</v>
       </c>
-      <c r="AI39" s="77">
+      <c r="AI39" s="26">
         <v>8</v>
       </c>
       <c r="AJ39" s="13">
         <v>9</v>
       </c>
-      <c r="AK39" s="77">
+      <c r="AK39" s="26">
         <v>10</v>
       </c>
       <c r="AL39" s="12">
@@ -3550,26 +3550,26 @@
       <c r="AN39" s="13">
         <v>13</v>
       </c>
-      <c r="AO39" s="77">
+      <c r="AO39" s="26">
         <v>14</v>
       </c>
-      <c r="AP39" s="77">
+      <c r="AP39" s="26">
         <v>15</v>
       </c>
-      <c r="AQ39" s="77">
+      <c r="AQ39" s="26">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:44">
-      <c r="A40" s="16">
+      <c r="A40" s="33">
         <v>17</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="16" t="s">
+      <c r="B40" s="43"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="33" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="8">
@@ -3578,8 +3578,8 @@
       <c r="G40" s="8">
         <v>43916</v>
       </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="11"/>
@@ -3602,35 +3602,35 @@
       <c r="W40" s="13"/>
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
-      <c r="Z40" s="77"/>
+      <c r="Z40" s="26"/>
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
       <c r="AC40" s="13"/>
       <c r="AD40" s="13"/>
       <c r="AE40" s="12"/>
       <c r="AF40" s="12"/>
-      <c r="AG40" s="77"/>
-      <c r="AH40" s="77"/>
-      <c r="AI40" s="77"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
       <c r="AJ40" s="13"/>
-      <c r="AK40" s="77"/>
+      <c r="AK40" s="26"/>
       <c r="AL40" s="12"/>
       <c r="AM40" s="12"/>
       <c r="AN40" s="13"/>
-      <c r="AO40" s="77"/>
-      <c r="AP40" s="77"/>
-      <c r="AQ40" s="77"/>
+      <c r="AO40" s="26"/>
+      <c r="AP40" s="26"/>
+      <c r="AQ40" s="26"/>
     </row>
     <row r="41" spans="1:44">
-      <c r="A41" s="16"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="19"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="36"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11"/>
@@ -3647,35 +3647,35 @@
       <c r="W41" s="13"/>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
-      <c r="Z41" s="77"/>
+      <c r="Z41" s="26"/>
       <c r="AA41" s="13"/>
       <c r="AB41" s="13"/>
       <c r="AC41" s="13"/>
       <c r="AD41" s="13"/>
       <c r="AE41" s="12"/>
       <c r="AF41" s="12"/>
-      <c r="AG41" s="77"/>
-      <c r="AH41" s="77"/>
-      <c r="AI41" s="77"/>
+      <c r="AG41" s="26"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="26"/>
       <c r="AJ41" s="13"/>
-      <c r="AK41" s="77"/>
+      <c r="AK41" s="26"/>
       <c r="AL41" s="12"/>
       <c r="AM41" s="12"/>
       <c r="AN41" s="13"/>
-      <c r="AO41" s="77"/>
-      <c r="AP41" s="77"/>
-      <c r="AQ41" s="77"/>
+      <c r="AO41" s="26"/>
+      <c r="AP41" s="26"/>
+      <c r="AQ41" s="26"/>
     </row>
     <row r="42" spans="1:44">
-      <c r="A42" s="16">
+      <c r="A42" s="33">
         <v>18</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="16" t="s">
+      <c r="B42" s="43"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="33" t="s">
         <v>41</v>
       </c>
       <c r="F42" s="8">
@@ -3684,8 +3684,8 @@
       <c r="G42" s="8">
         <v>43918</v>
       </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="11"/>
@@ -3706,35 +3706,35 @@
         <v>13</v>
       </c>
       <c r="Y42" s="12"/>
-      <c r="Z42" s="77"/>
+      <c r="Z42" s="26"/>
       <c r="AA42" s="13"/>
       <c r="AB42" s="13"/>
       <c r="AC42" s="13"/>
       <c r="AD42" s="13"/>
       <c r="AE42" s="12"/>
       <c r="AF42" s="12"/>
-      <c r="AG42" s="77"/>
-      <c r="AH42" s="77"/>
-      <c r="AI42" s="77"/>
+      <c r="AG42" s="26"/>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="26"/>
       <c r="AJ42" s="13"/>
-      <c r="AK42" s="77"/>
+      <c r="AK42" s="26"/>
       <c r="AL42" s="12"/>
       <c r="AM42" s="12"/>
       <c r="AN42" s="13"/>
-      <c r="AO42" s="77"/>
-      <c r="AP42" s="77"/>
-      <c r="AQ42" s="77"/>
+      <c r="AO42" s="26"/>
+      <c r="AP42" s="26"/>
+      <c r="AQ42" s="26"/>
     </row>
     <row r="43" spans="1:44">
-      <c r="A43" s="16"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="36"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11"/>
@@ -3751,35 +3751,35 @@
       <c r="W43" s="13"/>
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
-      <c r="Z43" s="77"/>
+      <c r="Z43" s="26"/>
       <c r="AA43" s="13"/>
       <c r="AB43" s="13"/>
       <c r="AC43" s="13"/>
       <c r="AD43" s="13"/>
       <c r="AE43" s="12"/>
       <c r="AF43" s="12"/>
-      <c r="AG43" s="77"/>
-      <c r="AH43" s="77"/>
-      <c r="AI43" s="77"/>
+      <c r="AG43" s="26"/>
+      <c r="AH43" s="26"/>
+      <c r="AI43" s="26"/>
       <c r="AJ43" s="13"/>
-      <c r="AK43" s="77"/>
+      <c r="AK43" s="26"/>
       <c r="AL43" s="12"/>
       <c r="AM43" s="12"/>
       <c r="AN43" s="13"/>
-      <c r="AO43" s="77"/>
-      <c r="AP43" s="77"/>
-      <c r="AQ43" s="77"/>
+      <c r="AO43" s="26"/>
+      <c r="AP43" s="26"/>
+      <c r="AQ43" s="26"/>
     </row>
     <row r="44" spans="1:44">
-      <c r="A44" s="16">
+      <c r="A44" s="33">
         <v>19</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="16" t="s">
+      <c r="B44" s="43"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="33" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="8">
@@ -3788,8 +3788,8 @@
       <c r="G44" s="8">
         <v>43920</v>
       </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="11"/>
@@ -3817,28 +3817,28 @@
       <c r="AD44" s="13"/>
       <c r="AE44" s="12"/>
       <c r="AF44" s="12"/>
-      <c r="AG44" s="77"/>
-      <c r="AH44" s="77"/>
-      <c r="AI44" s="77"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
       <c r="AJ44" s="13"/>
-      <c r="AK44" s="77"/>
+      <c r="AK44" s="26"/>
       <c r="AL44" s="12"/>
       <c r="AM44" s="12"/>
       <c r="AN44" s="13"/>
-      <c r="AO44" s="77"/>
-      <c r="AP44" s="77"/>
-      <c r="AQ44" s="77"/>
+      <c r="AO44" s="26"/>
+      <c r="AP44" s="26"/>
+      <c r="AQ44" s="26"/>
     </row>
     <row r="45" spans="1:44">
-      <c r="A45" s="16"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="34"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="19"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="36"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="11"/>
@@ -3855,35 +3855,35 @@
       <c r="W45" s="13"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
-      <c r="Z45" s="77"/>
+      <c r="Z45" s="26"/>
       <c r="AA45" s="13"/>
       <c r="AB45" s="13"/>
       <c r="AC45" s="13"/>
       <c r="AD45" s="13"/>
       <c r="AE45" s="12"/>
       <c r="AF45" s="12"/>
-      <c r="AG45" s="77"/>
-      <c r="AH45" s="77"/>
-      <c r="AI45" s="77"/>
+      <c r="AG45" s="26"/>
+      <c r="AH45" s="26"/>
+      <c r="AI45" s="26"/>
       <c r="AJ45" s="13"/>
-      <c r="AK45" s="77"/>
+      <c r="AK45" s="26"/>
       <c r="AL45" s="12"/>
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
-      <c r="AO45" s="77"/>
-      <c r="AP45" s="77"/>
-      <c r="AQ45" s="77"/>
+      <c r="AO45" s="26"/>
+      <c r="AP45" s="26"/>
+      <c r="AQ45" s="26"/>
     </row>
     <row r="46" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A46" s="16">
+      <c r="A46" s="33">
         <v>20</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="16" t="s">
+      <c r="B46" s="43"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="33" t="s">
         <v>43</v>
       </c>
       <c r="F46" s="8">
@@ -3892,8 +3892,8 @@
       <c r="G46" s="8">
         <v>43921</v>
       </c>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="11"/>
@@ -3921,28 +3921,28 @@
       <c r="AD46" s="13"/>
       <c r="AE46" s="12"/>
       <c r="AF46" s="12"/>
-      <c r="AG46" s="77"/>
-      <c r="AH46" s="77"/>
-      <c r="AI46" s="77"/>
+      <c r="AG46" s="26"/>
+      <c r="AH46" s="26"/>
+      <c r="AI46" s="26"/>
       <c r="AJ46" s="13"/>
-      <c r="AK46" s="77"/>
+      <c r="AK46" s="26"/>
       <c r="AL46" s="12"/>
       <c r="AM46" s="12"/>
       <c r="AN46" s="13"/>
-      <c r="AO46" s="77"/>
-      <c r="AP46" s="77"/>
-      <c r="AQ46" s="77"/>
+      <c r="AO46" s="26"/>
+      <c r="AP46" s="26"/>
+      <c r="AQ46" s="26"/>
     </row>
     <row r="47" spans="1:44">
-      <c r="A47" s="16"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="17"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="19"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="36"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
@@ -3959,35 +3959,35 @@
       <c r="W47" s="13"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
-      <c r="Z47" s="77"/>
+      <c r="Z47" s="26"/>
       <c r="AA47" s="13"/>
       <c r="AB47" s="13"/>
       <c r="AC47" s="13"/>
       <c r="AD47" s="13"/>
       <c r="AE47" s="12"/>
       <c r="AF47" s="12"/>
-      <c r="AG47" s="77"/>
-      <c r="AH47" s="77"/>
-      <c r="AI47" s="77"/>
+      <c r="AG47" s="26"/>
+      <c r="AH47" s="26"/>
+      <c r="AI47" s="26"/>
       <c r="AJ47" s="13"/>
-      <c r="AK47" s="77"/>
+      <c r="AK47" s="26"/>
       <c r="AL47" s="12"/>
       <c r="AM47" s="12"/>
       <c r="AN47" s="13"/>
-      <c r="AO47" s="77"/>
-      <c r="AP47" s="77"/>
-      <c r="AQ47" s="77"/>
+      <c r="AO47" s="26"/>
+      <c r="AP47" s="26"/>
+      <c r="AQ47" s="26"/>
     </row>
     <row r="48" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A48" s="16">
+      <c r="A48" s="33">
         <v>21</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="16" t="s">
+      <c r="B48" s="43"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="33" t="s">
         <v>46</v>
       </c>
       <c r="F48" s="8">
@@ -3996,8 +3996,8 @@
       <c r="G48" s="8">
         <v>43928</v>
       </c>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
@@ -4048,15 +4048,15 @@
       <c r="AQ48" s="13"/>
     </row>
     <row r="49" spans="1:43">
-      <c r="A49" s="16"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="17"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="19"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="36"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="11"/>
@@ -4095,106 +4095,129 @@
     <row r="53" spans="1:43" ht="13.2" customHeight="1"/>
     <row r="54" spans="1:43" ht="13.2" customHeight="1"/>
     <row r="63" spans="1:43">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
-      <c r="T63" s="14"/>
-      <c r="U63" s="14"/>
-      <c r="V63" s="14"/>
-      <c r="W63" s="14"/>
-      <c r="X63" s="14"/>
-      <c r="Y63" s="14"/>
-      <c r="Z63" s="14"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="75"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="75"/>
+      <c r="O63" s="75"/>
+      <c r="P63" s="75"/>
+      <c r="Q63" s="75"/>
+      <c r="R63" s="75"/>
+      <c r="S63" s="75"/>
+      <c r="T63" s="75"/>
+      <c r="U63" s="75"/>
+      <c r="V63" s="75"/>
+      <c r="W63" s="75"/>
+      <c r="X63" s="75"/>
+      <c r="Y63" s="75"/>
+      <c r="Z63" s="75"/>
     </row>
     <row r="64" spans="1:43">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="14"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="14"/>
-      <c r="V64" s="14"/>
-      <c r="W64" s="14"/>
-      <c r="X64" s="14"/>
-      <c r="Y64" s="14"/>
-      <c r="Z64" s="14"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="75"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="75"/>
+      <c r="O64" s="75"/>
+      <c r="P64" s="75"/>
+      <c r="Q64" s="75"/>
+      <c r="R64" s="75"/>
+      <c r="S64" s="75"/>
+      <c r="T64" s="75"/>
+      <c r="U64" s="75"/>
+      <c r="V64" s="75"/>
+      <c r="W64" s="75"/>
+      <c r="X64" s="75"/>
+      <c r="Y64" s="75"/>
+      <c r="Z64" s="75"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="128">
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B38:C49"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A63:Z64"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B8:C17"/>
+    <mergeCell ref="B18:C27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C37"/>
+    <mergeCell ref="H36:H37"/>
     <mergeCell ref="AB6:AR6"/>
     <mergeCell ref="AR8:AR35"/>
     <mergeCell ref="A1:AI2"/>
@@ -4219,70 +4242,47 @@
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="D34:D35"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B38:C49"/>
     <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:C37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A63:Z64"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="B8:C17"/>
-    <mergeCell ref="B18:C27"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/06. 구현 - 조별 프로젝트 공정도.xlsx
+++ b/06. 구현 - 조별 프로젝트 공정도.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -735,14 +735,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -750,140 +747,143 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:AS64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1286,170 +1286,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
     </row>
     <row r="2" spans="1:45" ht="28.35" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="58" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60" t="s">
+      <c r="H3" s="66"/>
+      <c r="I3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="54" t="s">
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
     </row>
     <row r="4" spans="1:45" ht="21.15" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65" t="s">
+      <c r="H4" s="71"/>
+      <c r="I4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="55" t="s">
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="57"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="64"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1465,17 +1465,17 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1484,67 +1484,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="47" t="s">
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="48"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="55"/>
       <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1653,15 +1653,15 @@
       <c r="AS7" s="2"/>
     </row>
     <row r="8" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>1</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="8">
@@ -1670,10 +1670,10 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="34">
         <v>1</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="34" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="12"/>
@@ -1712,25 +1712,25 @@
       <c r="AO8" s="26"/>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="49" t="s">
+      <c r="AR8" s="56" t="s">
         <v>22</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="8">
         <v>43905</v>
       </c>
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="36"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
         <v>14</v>
@@ -1769,17 +1769,17 @@
       <c r="AO9" s="26"/>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="50"/>
+      <c r="AR9" s="57"/>
       <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>2</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="8">
@@ -1788,15 +1788,15 @@
       <c r="G10" s="8">
         <v>43907</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>14</v>
+      <c r="L10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -1828,25 +1828,29 @@
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="50"/>
+      <c r="AR10" s="57"/>
       <c r="AS10" s="2"/>
     </row>
     <row r="11" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="8">
         <v>43906</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="36"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="L11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
@@ -1877,17 +1881,17 @@
       <c r="AO11" s="26"/>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="50"/>
+      <c r="AR11" s="57"/>
       <c r="AS11" s="2"/>
     </row>
     <row r="12" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>3</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="8">
@@ -1896,8 +1900,8 @@
       <c r="G12" s="8">
         <v>43908</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="11" t="s">
@@ -1938,25 +1942,29 @@
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="50"/>
+      <c r="AR12" s="57"/>
       <c r="AS12" s="2"/>
     </row>
     <row r="13" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="8">
         <v>43906</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="36"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
+      <c r="L13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -1987,17 +1995,17 @@
       <c r="AO13" s="26"/>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="50"/>
+      <c r="AR13" s="57"/>
       <c r="AS13" s="2"/>
     </row>
     <row r="14" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>4</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="8">
@@ -2006,8 +2014,8 @@
       <c r="G14" s="8">
         <v>43917</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="11"/>
@@ -2062,19 +2070,19 @@
       <c r="AO14" s="26"/>
       <c r="AP14" s="26"/>
       <c r="AQ14" s="26"/>
-      <c r="AR14" s="50"/>
+      <c r="AR14" s="57"/>
       <c r="AS14" s="2"/>
     </row>
     <row r="15" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="36"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11"/>
@@ -2109,17 +2117,17 @@
       <c r="AO15" s="26"/>
       <c r="AP15" s="26"/>
       <c r="AQ15" s="26"/>
-      <c r="AR15" s="50"/>
+      <c r="AR15" s="57"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
-      <c r="A16" s="33">
+      <c r="A16" s="32">
         <v>5</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="37" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="77" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="8">
@@ -2128,8 +2136,8 @@
       <c r="G16" s="8">
         <v>43937</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
@@ -2182,18 +2190,18 @@
       <c r="AQ16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AR16" s="50"/>
+      <c r="AR16" s="57"/>
     </row>
     <row r="17" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="38"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
@@ -2228,20 +2236,20 @@
       <c r="AO17" s="27"/>
       <c r="AP17" s="27"/>
       <c r="AQ17" s="27"/>
-      <c r="AR17" s="50"/>
+      <c r="AR17" s="57"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A18" s="32">
+      <c r="A18" s="36">
         <v>6</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="32" t="s">
+      <c r="C18" s="45"/>
+      <c r="D18" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="36" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="15">
@@ -2250,8 +2258,8 @@
       <c r="G18" s="15">
         <v>43913</v>
       </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="20"/>
@@ -2292,18 +2300,18 @@
       <c r="AO18" s="28"/>
       <c r="AP18" s="28"/>
       <c r="AQ18" s="28"/>
-      <c r="AR18" s="50"/>
+      <c r="AR18" s="57"/>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" s="33"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="36"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11"/>
@@ -2338,18 +2346,18 @@
       <c r="AO19" s="26"/>
       <c r="AP19" s="26"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="50"/>
+      <c r="AR19" s="57"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
-      <c r="A20" s="33">
+      <c r="A20" s="32">
         <v>7</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="33" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="32" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="8">
@@ -2358,8 +2366,8 @@
       <c r="G20" s="8">
         <v>43917</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="11"/>
@@ -2400,18 +2408,18 @@
       <c r="AO20" s="26"/>
       <c r="AP20" s="26"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="50"/>
+      <c r="AR20" s="57"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="33"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="36"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="12">
         <v>14</v>
       </c>
@@ -2514,18 +2522,18 @@
       <c r="AQ21" s="26">
         <v>16</v>
       </c>
-      <c r="AR21" s="50"/>
+      <c r="AR21" s="57"/>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="33">
+      <c r="A22" s="32">
         <v>8</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="33" t="s">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="32" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="8">
@@ -2534,8 +2542,8 @@
       <c r="G22" s="8">
         <v>43921</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="11"/>
@@ -2576,18 +2584,18 @@
       <c r="AO22" s="26"/>
       <c r="AP22" s="26"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="50"/>
+      <c r="AR22" s="57"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="33"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="36"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
@@ -2622,18 +2630,18 @@
       <c r="AO23" s="26"/>
       <c r="AP23" s="26"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="50"/>
+      <c r="AR23" s="57"/>
     </row>
     <row r="24" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A24" s="33">
+      <c r="A24" s="32">
         <v>9</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="33" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="32" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="8">
@@ -2642,8 +2650,8 @@
       <c r="G24" s="8">
         <v>43923</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="11"/>
@@ -2682,18 +2690,18 @@
       <c r="AO24" s="26"/>
       <c r="AP24" s="26"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="50"/>
+      <c r="AR24" s="57"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="33"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="36"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11"/>
@@ -2728,18 +2736,18 @@
       <c r="AO25" s="26"/>
       <c r="AP25" s="26"/>
       <c r="AQ25" s="26"/>
-      <c r="AR25" s="50"/>
+      <c r="AR25" s="57"/>
     </row>
     <row r="26" spans="1:44" ht="12" customHeight="1">
-      <c r="A26" s="33">
+      <c r="A26" s="32">
         <v>10</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="33" t="s">
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="32" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="8">
@@ -2748,8 +2756,8 @@
       <c r="G26" s="8">
         <v>43928</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="11"/>
@@ -2794,18 +2802,18 @@
       <c r="AO26" s="26"/>
       <c r="AP26" s="26"/>
       <c r="AQ26" s="26"/>
-      <c r="AR26" s="50"/>
+      <c r="AR26" s="57"/>
     </row>
     <row r="27" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="50"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="31"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="24"/>
@@ -2840,20 +2848,20 @@
       <c r="AO27" s="29"/>
       <c r="AP27" s="29"/>
       <c r="AQ27" s="29"/>
-      <c r="AR27" s="50"/>
+      <c r="AR27" s="57"/>
     </row>
     <row r="28" spans="1:44" ht="13.8" thickTop="1">
-      <c r="A28" s="32">
+      <c r="A28" s="36">
         <v>11</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="45"/>
+      <c r="D28" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="36" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="15">
@@ -2862,8 +2870,8 @@
       <c r="G28" s="15">
         <v>43914</v>
       </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
@@ -2904,18 +2912,18 @@
       <c r="AO28" s="28"/>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="28"/>
-      <c r="AR28" s="50"/>
+      <c r="AR28" s="57"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" s="33"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="36"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
@@ -2950,18 +2958,18 @@
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
-      <c r="AR29" s="50"/>
+      <c r="AR29" s="57"/>
     </row>
     <row r="30" spans="1:44">
-      <c r="A30" s="33">
+      <c r="A30" s="32">
         <v>12</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="33" t="s">
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="32" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="8">
@@ -2970,8 +2978,8 @@
       <c r="G30" s="8">
         <v>43917</v>
       </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="11"/>
@@ -3012,18 +3020,18 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="50"/>
+      <c r="AR30" s="57"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" s="33"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="36"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
@@ -3058,18 +3066,18 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="50"/>
+      <c r="AR31" s="57"/>
     </row>
     <row r="32" spans="1:44" ht="12" customHeight="1">
-      <c r="A32" s="33">
-        <v>13</v>
-      </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="33" t="s">
+      <c r="A32" s="32">
+        <v>13</v>
+      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="32" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="8">
@@ -3078,8 +3086,8 @@
       <c r="G32" s="8">
         <v>43923</v>
       </c>
-      <c r="H32" s="70"/>
-      <c r="I32" s="30"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
@@ -3126,18 +3134,18 @@
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
       <c r="AQ32" s="13"/>
-      <c r="AR32" s="50"/>
+      <c r="AR32" s="57"/>
     </row>
     <row r="33" spans="1:44">
-      <c r="A33" s="33"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="36"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="11"/>
@@ -3172,18 +3180,18 @@
       <c r="AO33" s="13"/>
       <c r="AP33" s="13"/>
       <c r="AQ33" s="13"/>
-      <c r="AR33" s="50"/>
+      <c r="AR33" s="57"/>
     </row>
     <row r="34" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A34" s="33">
+      <c r="A34" s="32">
         <v>14</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="33" t="s">
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="32" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="8">
@@ -3192,8 +3200,8 @@
       <c r="G34" s="8">
         <v>43925</v>
       </c>
-      <c r="H34" s="70"/>
-      <c r="I34" s="30"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="11"/>
@@ -3232,18 +3240,18 @@
       <c r="AO34" s="13"/>
       <c r="AP34" s="13"/>
       <c r="AQ34" s="13"/>
-      <c r="AR34" s="50"/>
+      <c r="AR34" s="57"/>
     </row>
     <row r="35" spans="1:44">
-      <c r="A35" s="33"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="36"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11"/>
@@ -3278,18 +3286,18 @@
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
       <c r="AQ35" s="13"/>
-      <c r="AR35" s="51"/>
+      <c r="AR35" s="58"/>
     </row>
     <row r="36" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A36" s="33">
+      <c r="A36" s="32">
         <v>15</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="33" t="s">
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="32" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="8">
@@ -3298,8 +3306,8 @@
       <c r="G36" s="8">
         <v>43928</v>
       </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="11"/>
@@ -3342,15 +3350,15 @@
       <c r="AQ36" s="26"/>
     </row>
     <row r="37" spans="1:44" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="39"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="50"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="31"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="52"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
@@ -3387,17 +3395,17 @@
       <c r="AQ37" s="29"/>
     </row>
     <row r="38" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A38" s="32">
+      <c r="A38" s="36">
         <v>16</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="32" t="s">
+      <c r="C38" s="45"/>
+      <c r="D38" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="36" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="15">
@@ -3406,8 +3414,8 @@
       <c r="G38" s="15">
         <v>43913</v>
       </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="20"/>
@@ -3448,15 +3456,15 @@
       <c r="AQ38" s="28"/>
     </row>
     <row r="39" spans="1:44">
-      <c r="A39" s="33"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="36"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="35"/>
       <c r="J39" s="12">
         <v>14</v>
       </c>
@@ -3561,15 +3569,15 @@
       </c>
     </row>
     <row r="40" spans="1:44">
-      <c r="A40" s="33">
+      <c r="A40" s="32">
         <v>17</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="33" t="s">
+      <c r="B40" s="42"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="32" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="8">
@@ -3578,8 +3586,8 @@
       <c r="G40" s="8">
         <v>43916</v>
       </c>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="11"/>
@@ -3622,15 +3630,15 @@
       <c r="AQ40" s="26"/>
     </row>
     <row r="41" spans="1:44">
-      <c r="A41" s="33"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="36"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="35"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11"/>
@@ -3667,15 +3675,15 @@
       <c r="AQ41" s="26"/>
     </row>
     <row r="42" spans="1:44">
-      <c r="A42" s="33">
+      <c r="A42" s="32">
         <v>18</v>
       </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="33" t="s">
+      <c r="B42" s="42"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="32" t="s">
         <v>41</v>
       </c>
       <c r="F42" s="8">
@@ -3684,8 +3692,8 @@
       <c r="G42" s="8">
         <v>43918</v>
       </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="11"/>
@@ -3726,15 +3734,15 @@
       <c r="AQ42" s="26"/>
     </row>
     <row r="43" spans="1:44">
-      <c r="A43" s="33"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="36"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11"/>
@@ -3771,15 +3779,15 @@
       <c r="AQ43" s="26"/>
     </row>
     <row r="44" spans="1:44">
-      <c r="A44" s="33">
+      <c r="A44" s="32">
         <v>19</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="33" t="s">
+      <c r="B44" s="42"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="33" t="s">
+      <c r="E44" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="8">
@@ -3788,8 +3796,8 @@
       <c r="G44" s="8">
         <v>43920</v>
       </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="11"/>
@@ -3830,15 +3838,15 @@
       <c r="AQ44" s="26"/>
     </row>
     <row r="45" spans="1:44">
-      <c r="A45" s="33"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="36"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="11"/>
@@ -3875,15 +3883,15 @@
       <c r="AQ45" s="26"/>
     </row>
     <row r="46" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A46" s="33">
+      <c r="A46" s="32">
         <v>20</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="33" t="s">
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="33" t="s">
+      <c r="E46" s="32" t="s">
         <v>43</v>
       </c>
       <c r="F46" s="8">
@@ -3892,8 +3900,8 @@
       <c r="G46" s="8">
         <v>43921</v>
       </c>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="11"/>
@@ -3934,15 +3942,15 @@
       <c r="AQ46" s="26"/>
     </row>
     <row r="47" spans="1:44">
-      <c r="A47" s="33"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="36"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="35"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
@@ -3979,15 +3987,15 @@
       <c r="AQ47" s="26"/>
     </row>
     <row r="48" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A48" s="33">
+      <c r="A48" s="32">
         <v>21</v>
       </c>
-      <c r="B48" s="43"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="33" t="s">
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="E48" s="32" t="s">
         <v>46</v>
       </c>
       <c r="F48" s="8">
@@ -3996,8 +4004,8 @@
       <c r="G48" s="8">
         <v>43928</v>
       </c>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
@@ -4048,15 +4056,15 @@
       <c r="AQ48" s="13"/>
     </row>
     <row r="49" spans="1:43">
-      <c r="A49" s="33"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="34"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="36"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="35"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="11"/>
@@ -4095,66 +4103,170 @@
     <row r="53" spans="1:43" ht="13.2" customHeight="1"/>
     <row r="54" spans="1:43" ht="13.2" customHeight="1"/>
     <row r="63" spans="1:43">
-      <c r="A63" s="75" t="s">
+      <c r="A63" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="75"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="75"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="75"/>
-      <c r="P63" s="75"/>
-      <c r="Q63" s="75"/>
-      <c r="R63" s="75"/>
-      <c r="S63" s="75"/>
-      <c r="T63" s="75"/>
-      <c r="U63" s="75"/>
-      <c r="V63" s="75"/>
-      <c r="W63" s="75"/>
-      <c r="X63" s="75"/>
-      <c r="Y63" s="75"/>
-      <c r="Z63" s="75"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="30"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="30"/>
     </row>
     <row r="64" spans="1:43">
-      <c r="A64" s="75"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="75"/>
-      <c r="L64" s="75"/>
-      <c r="M64" s="75"/>
-      <c r="N64" s="75"/>
-      <c r="O64" s="75"/>
-      <c r="P64" s="75"/>
-      <c r="Q64" s="75"/>
-      <c r="R64" s="75"/>
-      <c r="S64" s="75"/>
-      <c r="T64" s="75"/>
-      <c r="U64" s="75"/>
-      <c r="V64" s="75"/>
-      <c r="W64" s="75"/>
-      <c r="X64" s="75"/>
-      <c r="Y64" s="75"/>
-      <c r="Z64" s="75"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
+      <c r="U64" s="30"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="30"/>
+      <c r="Y64" s="30"/>
+      <c r="Z64" s="30"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="128">
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B38:C49"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="AB6:AR6"/>
+    <mergeCell ref="AR8:AR35"/>
+    <mergeCell ref="A1:AI2"/>
+    <mergeCell ref="L3:AI3"/>
+    <mergeCell ref="L4:AI4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="J6:AA6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A63:Z64"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
@@ -4179,110 +4291,6 @@
     <mergeCell ref="B18:C27"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:C37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="AB6:AR6"/>
-    <mergeCell ref="AR8:AR35"/>
-    <mergeCell ref="A1:AI2"/>
-    <mergeCell ref="L3:AI3"/>
-    <mergeCell ref="L4:AI4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="J6:AA6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B38:C49"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/06. 구현 - 조별 프로젝트 공정도.xlsx
+++ b/06. 구현 - 조별 프로젝트 공정도.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SWDO_PJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWDO_PJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -283,7 +283,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="dd"/>
+    <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -672,7 +672,7 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,30 +735,145 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,126 +884,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -973,7 +973,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1264,8 +1264,8 @@
   </sheetPr>
   <dimension ref="A1:AS64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1286,170 +1286,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="31.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
     </row>
     <row r="2" spans="1:45" ht="28.35" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
     </row>
     <row r="3" spans="1:45" ht="33.75" customHeight="1">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="65" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67" t="s">
+      <c r="H3" s="58"/>
+      <c r="I3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="61" t="s">
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
     </row>
     <row r="4" spans="1:45" ht="21.15" customHeight="1">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72" t="s">
+      <c r="H4" s="63"/>
+      <c r="I4" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="62" t="s">
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="64"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="56"/>
     </row>
     <row r="5" spans="1:45" ht="15" customHeight="1">
       <c r="A5" s="1"/>
@@ -1465,17 +1465,17 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="76" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1484,67 +1484,67 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="54" t="s">
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55"/>
-      <c r="AM6" s="55"/>
-      <c r="AN6" s="55"/>
-      <c r="AO6" s="55"/>
-      <c r="AP6" s="55"/>
-      <c r="AQ6" s="55"/>
-      <c r="AR6" s="55"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="47"/>
       <c r="AS6" s="2"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="9">
         <v>43904</v>
       </c>
@@ -1653,15 +1653,15 @@
       <c r="AS7" s="2"/>
     </row>
     <row r="8" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A8" s="32">
+      <c r="A8" s="33">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="8">
@@ -1670,10 +1670,10 @@
       <c r="G8" s="8">
         <v>43905</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="31">
         <v>1</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="31" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="12"/>
@@ -1712,25 +1712,25 @@
       <c r="AO8" s="26"/>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="56" t="s">
+      <c r="AR8" s="48" t="s">
         <v>22</v>
       </c>
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="8">
         <v>43905</v>
       </c>
       <c r="G9" s="8">
         <v>43906</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12" t="s">
         <v>14</v>
@@ -1769,17 +1769,17 @@
       <c r="AO9" s="26"/>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="57"/>
+      <c r="AR9" s="49"/>
       <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A10" s="32">
+      <c r="A10" s="33">
         <v>2</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="8">
@@ -1788,8 +1788,8 @@
       <c r="G10" s="8">
         <v>43907</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="11" t="s">
@@ -1828,21 +1828,21 @@
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="57"/>
+      <c r="AR10" s="49"/>
       <c r="AS10" s="2"/>
     </row>
     <row r="11" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="8">
         <v>43906</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="11" t="s">
@@ -1881,17 +1881,17 @@
       <c r="AO11" s="26"/>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="57"/>
+      <c r="AR11" s="49"/>
       <c r="AS11" s="2"/>
     </row>
     <row r="12" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A12" s="32">
+      <c r="A12" s="33">
         <v>3</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="8">
@@ -1900,8 +1900,8 @@
       <c r="G12" s="8">
         <v>43908</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="11" t="s">
@@ -1942,21 +1942,21 @@
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="57"/>
+      <c r="AR12" s="49"/>
       <c r="AS12" s="2"/>
     </row>
     <row r="13" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="8">
         <v>43906</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="11" t="s">
@@ -1995,17 +1995,17 @@
       <c r="AO13" s="26"/>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="57"/>
+      <c r="AR13" s="49"/>
       <c r="AS13" s="2"/>
     </row>
     <row r="14" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A14" s="32">
+      <c r="A14" s="33">
         <v>4</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="8">
@@ -2014,8 +2014,8 @@
       <c r="G14" s="8">
         <v>43917</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="11"/>
@@ -2070,19 +2070,19 @@
       <c r="AO14" s="26"/>
       <c r="AP14" s="26"/>
       <c r="AQ14" s="26"/>
-      <c r="AR14" s="57"/>
+      <c r="AR14" s="49"/>
       <c r="AS14" s="2"/>
     </row>
     <row r="15" spans="1:45" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11"/>
@@ -2117,17 +2117,17 @@
       <c r="AO15" s="26"/>
       <c r="AP15" s="26"/>
       <c r="AQ15" s="26"/>
-      <c r="AR15" s="57"/>
+      <c r="AR15" s="49"/>
       <c r="AS15" s="2"/>
     </row>
     <row r="16" spans="1:45" ht="12" customHeight="1">
-      <c r="A16" s="32">
+      <c r="A16" s="33">
         <v>5</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="77" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="35" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="8">
@@ -2136,8 +2136,8 @@
       <c r="G16" s="8">
         <v>43937</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
@@ -2190,18 +2190,18 @@
       <c r="AQ16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AR16" s="57"/>
+      <c r="AR16" s="49"/>
     </row>
     <row r="17" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="78"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
@@ -2236,20 +2236,20 @@
       <c r="AO17" s="27"/>
       <c r="AP17" s="27"/>
       <c r="AQ17" s="27"/>
-      <c r="AR17" s="57"/>
+      <c r="AR17" s="49"/>
     </row>
     <row r="18" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A18" s="36">
+      <c r="A18" s="45">
         <v>6</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="45" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="15">
@@ -2258,8 +2258,8 @@
       <c r="G18" s="15">
         <v>43913</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="20"/>
@@ -2300,22 +2300,26 @@
       <c r="AO18" s="28"/>
       <c r="AP18" s="28"/>
       <c r="AQ18" s="28"/>
-      <c r="AR18" s="57"/>
+      <c r="AR18" s="49"/>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" s="32"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="8">
+        <v>43908</v>
+      </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
+      <c r="M19" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
@@ -2346,18 +2350,18 @@
       <c r="AO19" s="26"/>
       <c r="AP19" s="26"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="57"/>
+      <c r="AR19" s="49"/>
     </row>
     <row r="20" spans="1:44" ht="12" customHeight="1">
-      <c r="A20" s="32">
+      <c r="A20" s="33">
         <v>7</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="32" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="33" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="8">
@@ -2366,8 +2370,8 @@
       <c r="G20" s="8">
         <v>43917</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="11"/>
@@ -2408,18 +2412,18 @@
       <c r="AO20" s="26"/>
       <c r="AP20" s="26"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="57"/>
+      <c r="AR20" s="49"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="32"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="12">
         <v>14</v>
       </c>
@@ -2522,18 +2526,18 @@
       <c r="AQ21" s="26">
         <v>16</v>
       </c>
-      <c r="AR21" s="57"/>
+      <c r="AR21" s="49"/>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="32">
+      <c r="A22" s="33">
         <v>8</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="32" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="33" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="8">
@@ -2542,8 +2546,8 @@
       <c r="G22" s="8">
         <v>43921</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="11"/>
@@ -2584,18 +2588,18 @@
       <c r="AO22" s="26"/>
       <c r="AP22" s="26"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="57"/>
+      <c r="AR22" s="49"/>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="32"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
@@ -2630,18 +2634,18 @@
       <c r="AO23" s="26"/>
       <c r="AP23" s="26"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="57"/>
+      <c r="AR23" s="49"/>
     </row>
     <row r="24" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A24" s="32">
+      <c r="A24" s="33">
         <v>9</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="32" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="33" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="8">
@@ -2650,8 +2654,8 @@
       <c r="G24" s="8">
         <v>43923</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="11"/>
@@ -2690,18 +2694,18 @@
       <c r="AO24" s="26"/>
       <c r="AP24" s="26"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="57"/>
+      <c r="AR24" s="49"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="32"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="11"/>
@@ -2736,18 +2740,18 @@
       <c r="AO25" s="26"/>
       <c r="AP25" s="26"/>
       <c r="AQ25" s="26"/>
-      <c r="AR25" s="57"/>
+      <c r="AR25" s="49"/>
     </row>
     <row r="26" spans="1:44" ht="12" customHeight="1">
-      <c r="A26" s="32">
+      <c r="A26" s="33">
         <v>10</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="32" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="33" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="8">
@@ -2756,8 +2760,8 @@
       <c r="G26" s="8">
         <v>43928</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="11"/>
@@ -2802,22 +2806,26 @@
       <c r="AO26" s="26"/>
       <c r="AP26" s="26"/>
       <c r="AQ26" s="26"/>
-      <c r="AR26" s="57"/>
+      <c r="AR26" s="49"/>
     </row>
     <row r="27" spans="1:44" ht="13.8" thickBot="1">
-      <c r="A27" s="53"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="22"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="8">
+        <v>43908</v>
+      </c>
       <c r="G27" s="22"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="71"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="P27" s="25"/>
@@ -2848,20 +2856,20 @@
       <c r="AO27" s="29"/>
       <c r="AP27" s="29"/>
       <c r="AQ27" s="29"/>
-      <c r="AR27" s="57"/>
+      <c r="AR27" s="49"/>
     </row>
     <row r="28" spans="1:44" ht="13.8" thickTop="1">
-      <c r="A28" s="36">
+      <c r="A28" s="45">
         <v>11</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="36" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="45" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="15">
@@ -2870,8 +2878,8 @@
       <c r="G28" s="15">
         <v>43914</v>
       </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
@@ -2912,18 +2920,18 @@
       <c r="AO28" s="28"/>
       <c r="AP28" s="28"/>
       <c r="AQ28" s="28"/>
-      <c r="AR28" s="57"/>
+      <c r="AR28" s="49"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" s="32"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="33"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="35"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="32"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="11"/>
@@ -2958,18 +2966,18 @@
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
-      <c r="AR29" s="57"/>
+      <c r="AR29" s="49"/>
     </row>
     <row r="30" spans="1:44">
-      <c r="A30" s="32">
+      <c r="A30" s="33">
         <v>12</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="32" t="s">
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="33" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="8">
@@ -2978,8 +2986,8 @@
       <c r="G30" s="8">
         <v>43917</v>
       </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="11"/>
@@ -3020,18 +3028,18 @@
       <c r="AO30" s="13"/>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
-      <c r="AR30" s="57"/>
+      <c r="AR30" s="49"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" s="32"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
@@ -3066,18 +3074,18 @@
       <c r="AO31" s="13"/>
       <c r="AP31" s="13"/>
       <c r="AQ31" s="13"/>
-      <c r="AR31" s="57"/>
+      <c r="AR31" s="49"/>
     </row>
     <row r="32" spans="1:44" ht="12" customHeight="1">
-      <c r="A32" s="32">
-        <v>13</v>
-      </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="32" t="s">
+      <c r="A32" s="33">
+        <v>13</v>
+      </c>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="33" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="8">
@@ -3086,8 +3094,8 @@
       <c r="G32" s="8">
         <v>43923</v>
       </c>
-      <c r="H32" s="49"/>
-      <c r="I32" s="34"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
@@ -3134,18 +3142,18 @@
       <c r="AO32" s="13"/>
       <c r="AP32" s="13"/>
       <c r="AQ32" s="13"/>
-      <c r="AR32" s="57"/>
+      <c r="AR32" s="49"/>
     </row>
     <row r="33" spans="1:44">
-      <c r="A33" s="32"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="35"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="11"/>
@@ -3180,18 +3188,18 @@
       <c r="AO33" s="13"/>
       <c r="AP33" s="13"/>
       <c r="AQ33" s="13"/>
-      <c r="AR33" s="57"/>
+      <c r="AR33" s="49"/>
     </row>
     <row r="34" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A34" s="32">
+      <c r="A34" s="33">
         <v>14</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="32" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="33" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="8">
@@ -3200,8 +3208,8 @@
       <c r="G34" s="8">
         <v>43925</v>
       </c>
-      <c r="H34" s="49"/>
-      <c r="I34" s="34"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="11"/>
@@ -3240,18 +3248,18 @@
       <c r="AO34" s="13"/>
       <c r="AP34" s="13"/>
       <c r="AQ34" s="13"/>
-      <c r="AR34" s="57"/>
+      <c r="AR34" s="49"/>
     </row>
     <row r="35" spans="1:44">
-      <c r="A35" s="32"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="35"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="32"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="11"/>
@@ -3286,18 +3294,18 @@
       <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
       <c r="AQ35" s="13"/>
-      <c r="AR35" s="58"/>
+      <c r="AR35" s="50"/>
     </row>
     <row r="36" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A36" s="32">
+      <c r="A36" s="33">
         <v>15</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="32" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="33" t="s">
         <v>39</v>
       </c>
       <c r="F36" s="8">
@@ -3306,8 +3314,8 @@
       <c r="G36" s="8">
         <v>43928</v>
       </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="11"/>
@@ -3350,15 +3358,15 @@
       <c r="AQ36" s="26"/>
     </row>
     <row r="37" spans="1:44" ht="12" customHeight="1" thickBot="1">
-      <c r="A37" s="53"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="50"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="52"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="71"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
@@ -3395,17 +3403,17 @@
       <c r="AQ37" s="29"/>
     </row>
     <row r="38" spans="1:44" ht="12" customHeight="1" thickTop="1">
-      <c r="A38" s="36">
+      <c r="A38" s="45">
         <v>16</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="36" t="s">
+      <c r="C38" s="40"/>
+      <c r="D38" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="45" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="15">
@@ -3414,8 +3422,8 @@
       <c r="G38" s="15">
         <v>43913</v>
       </c>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="20"/>
@@ -3456,15 +3464,15 @@
       <c r="AQ38" s="28"/>
     </row>
     <row r="39" spans="1:44">
-      <c r="A39" s="32"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="35"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="32"/>
       <c r="J39" s="12">
         <v>14</v>
       </c>
@@ -3569,15 +3577,15 @@
       </c>
     </row>
     <row r="40" spans="1:44">
-      <c r="A40" s="32">
+      <c r="A40" s="33">
         <v>17</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="32" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="33" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="8">
@@ -3586,8 +3594,8 @@
       <c r="G40" s="8">
         <v>43916</v>
       </c>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="11"/>
@@ -3630,15 +3638,15 @@
       <c r="AQ40" s="26"/>
     </row>
     <row r="41" spans="1:44">
-      <c r="A41" s="32"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="35"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="32"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="11"/>
@@ -3675,15 +3683,15 @@
       <c r="AQ41" s="26"/>
     </row>
     <row r="42" spans="1:44">
-      <c r="A42" s="32">
+      <c r="A42" s="33">
         <v>18</v>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="32" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="33" t="s">
         <v>41</v>
       </c>
       <c r="F42" s="8">
@@ -3692,8 +3700,8 @@
       <c r="G42" s="8">
         <v>43918</v>
       </c>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="11"/>
@@ -3734,15 +3742,15 @@
       <c r="AQ42" s="26"/>
     </row>
     <row r="43" spans="1:44">
-      <c r="A43" s="32"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="35"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="32"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="11"/>
@@ -3779,15 +3787,15 @@
       <c r="AQ43" s="26"/>
     </row>
     <row r="44" spans="1:44">
-      <c r="A44" s="32">
+      <c r="A44" s="33">
         <v>19</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="32" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="33" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="8">
@@ -3796,8 +3804,8 @@
       <c r="G44" s="8">
         <v>43920</v>
       </c>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="11"/>
@@ -3838,15 +3846,15 @@
       <c r="AQ44" s="26"/>
     </row>
     <row r="45" spans="1:44">
-      <c r="A45" s="32"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="34"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="35"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="32"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="11"/>
@@ -3883,15 +3891,15 @@
       <c r="AQ45" s="26"/>
     </row>
     <row r="46" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A46" s="32">
+      <c r="A46" s="33">
         <v>20</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="32" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="33" t="s">
         <v>43</v>
       </c>
       <c r="F46" s="8">
@@ -3900,8 +3908,8 @@
       <c r="G46" s="8">
         <v>43921</v>
       </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="11"/>
@@ -3942,15 +3950,15 @@
       <c r="AQ46" s="26"/>
     </row>
     <row r="47" spans="1:44">
-      <c r="A47" s="32"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="35"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="32"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
@@ -3987,15 +3995,15 @@
       <c r="AQ47" s="26"/>
     </row>
     <row r="48" spans="1:44" ht="13.2" customHeight="1">
-      <c r="A48" s="32">
+      <c r="A48" s="33">
         <v>21</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="32" t="s">
+      <c r="B48" s="41"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="33" t="s">
         <v>46</v>
       </c>
       <c r="F48" s="8">
@@ -4004,8 +4012,8 @@
       <c r="G48" s="8">
         <v>43928</v>
       </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
@@ -4056,15 +4064,15 @@
       <c r="AQ48" s="13"/>
     </row>
     <row r="49" spans="1:43">
-      <c r="A49" s="32"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="35"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="32"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="11"/>
@@ -4103,106 +4111,105 @@
     <row r="53" spans="1:43" ht="13.2" customHeight="1"/>
     <row r="54" spans="1:43" ht="13.2" customHeight="1"/>
     <row r="63" spans="1:43">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
-      <c r="V63" s="30"/>
-      <c r="W63" s="30"/>
-      <c r="X63" s="30"/>
-      <c r="Y63" s="30"/>
-      <c r="Z63" s="30"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="75"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="75"/>
+      <c r="O63" s="75"/>
+      <c r="P63" s="75"/>
+      <c r="Q63" s="75"/>
+      <c r="R63" s="75"/>
+      <c r="S63" s="75"/>
+      <c r="T63" s="75"/>
+      <c r="U63" s="75"/>
+      <c r="V63" s="75"/>
+      <c r="W63" s="75"/>
+      <c r="X63" s="75"/>
+      <c r="Y63" s="75"/>
+      <c r="Z63" s="75"/>
     </row>
     <row r="64" spans="1:43">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="30"/>
-      <c r="V64" s="30"/>
-      <c r="W64" s="30"/>
-      <c r="X64" s="30"/>
-      <c r="Y64" s="30"/>
-      <c r="Z64" s="30"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="75"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="75"/>
+      <c r="N64" s="75"/>
+      <c r="O64" s="75"/>
+      <c r="P64" s="75"/>
+      <c r="Q64" s="75"/>
+      <c r="R64" s="75"/>
+      <c r="S64" s="75"/>
+      <c r="T64" s="75"/>
+      <c r="U64" s="75"/>
+      <c r="V64" s="75"/>
+      <c r="W64" s="75"/>
+      <c r="X64" s="75"/>
+      <c r="Y64" s="75"/>
+      <c r="Z64" s="75"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="128">
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B38:C49"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A63:Z64"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B8:C17"/>
+    <mergeCell ref="B18:C27"/>
     <mergeCell ref="AB6:AR6"/>
     <mergeCell ref="AR8:AR35"/>
     <mergeCell ref="A1:AI2"/>
@@ -4227,24 +4234,64 @@
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="D34:D35"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B38:C49"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H42:H43"/>
     <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I30:I31"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="A28:A29"/>
@@ -4252,45 +4299,6 @@
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A63:Z64"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="B8:C17"/>
-    <mergeCell ref="B18:C27"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
